--- a/newsCrawl/output.xlsx
+++ b/newsCrawl/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +442,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MASTER SEARCH</t>
+          <t>SEARCH KEY</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NUMBER OF MATCHES</t>
+          <t>NO. OF MATCHES</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,22 +462,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>DATES</t>
+          <t>LINKS</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>LINKS</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DATES</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>DATES</t>
+          <t>CONTENT</t>
         </is>
       </c>
     </row>
@@ -500,23 +490,17 @@
           <t>Hamilton Robinson secures around $87m for its fifth flagship fund</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>September 16, 2020</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>September 16, 2020</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/fund-news/hamilton-robinson-secures-around-87m-for-its-fifth-flagship-fund.html</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>September 16, 2020</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -537,23 +521,17 @@
           <t>Biotech-focused investor SR One is looking to raise $400m for its...</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>September 16, 2020</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>September 16, 2020</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/fund-news/biotech-focused-investor-sr-one-is-looking-to-raise-400m-for-its-new-fund.html</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>September 16, 2020</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,23 +548,17 @@
           <t>Ardian closes its fifth Expansion fund after just six months in...</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>September 16, 2020</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>September 16, 2020</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/fund-news/ardian-closes-its-fifth-expansion-fund-after-just-six-months-in-the-market.html</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>September 16, 2020</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -607,23 +579,17 @@
           <t>UPDATE: Former Gresham PE execs eye up to £120m for third...</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>September 15, 2020</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>September 15, 2020</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-pe-sector/buyout/former-gresham-pe-execs-reach-192m-for-third-beech-tree-private-equity-fundraise.html</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>September 15, 2020</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -640,23 +606,17 @@
           <t>TPG Growth-spinout Greenfield Partners seals $150m debut fund close to target...</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>September 15, 2020</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>September 15, 2020</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-pe-sector/venturegrowth/tpg-growth-spinout-greenfield-partners-seals-150m-debut-fund-close-to-target-israel-tech.html</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>September 15, 2020</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -677,23 +637,17 @@
           <t>Labor unions put at core of investment strategy for new $893m...</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>September 15, 2020</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>September 15, 2020</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-region/north-america-by-region/united-states-north-america-by-region/labor-unions-put-at-core-of-investment-strategy-for-new-893m-gcm-grosvenor-infrastructure-fund.html</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>September 15, 2020</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -714,23 +668,17 @@
           <t>CD&amp;R hauls in about $12bn for its biggest buyout fund yet</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>September 14, 2020</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>September 14, 2020</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-pe-sector/buyout/cdr-hauls-in-about-12bn-for-its-biggest-buyout-fund-yet.html</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>September 14, 2020</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -747,23 +695,17 @@
           <t>Sagard launches new European small-cap fund targeting healthcare, tech deals</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>September 14, 2020</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>September 14, 2020</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/fund-news/sagard-launches-new-european-small-cap-fund-targeting-healthcare-tech-deals.html</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>September 14, 2020</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -780,23 +722,17 @@
           <t>Experienced Chicago private equity player Benford Capital seals $130m debut fund...</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>September 11, 2020</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>September 11, 2020</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-pe-sector/buyout/experienced-chicago-private-equity-player-benford-capital-seals-130m-debut-fund-close.html</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>September 11, 2020</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -817,23 +753,17 @@
           <t>DNX Ventures raises $315m for third fund targeting US, Japan B2B...</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>September 11, 2020</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>September 11, 2020</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-pe-sector/venturegrowth/dnx-ventures-raises-315m-for-third-fund-targeting-us-japan-b2b-startups.html</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>September 11, 2020</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -850,23 +780,17 @@
           <t>PE firms increasingly paying themselves dividends through new portfolio company debt – report</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/deal-news/pe-firms-increasingly-paying-themselves-dividends-through-new-portfolio-company-debt-report.html</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -887,23 +811,17 @@
           <t>Greylock ready to invest in “incredible moment in time for tech” with new $1bn...</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-pe-sector/venturegrowth/greylock-ready-to-invest-in-incredible-moment-in-time-for-tech-with-new-1bn-fund.html</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -920,23 +838,17 @@
           <t>Atlassian reveals $50m venture capital fund to back cloud-based products, services</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-pe-sector/venturegrowth/atlassian-reveals-50m-venture-capital-fund-to-back-cloud-based-products-services.html</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -953,23 +865,17 @@
           <t>Sutter Hill seals astronomical return after early bet on Snowflake ends in $80bn-plus IPO...</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/deal-news/sutter-hill-seals-astronomical-return-after-early-bet-on-snowflake-ends-in-80bn-plus-ipo-valuation.html</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -990,23 +896,17 @@
           <t>Questa Capital reaches $348m hard cap final close for sophomore fundraise</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-pe-sector/venturegrowth/questa-capital-reaches-348m-hard-cap-final-close-for-sophomore-fundraise.html</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1023,23 +923,17 @@
           <t>Industrial decarbonisation PE specialist Ara Partners brings in veteran exec Tran as managing director</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/people-news/industrial-decarbonisation-pe-specialist-ara-partners-brings-in-veteran-exec-tran-as-managing-director.html</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1060,23 +954,17 @@
           <t>Quantum computing specialist Seeqc gets EQT Ventures backing in $22.4m Series A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/deal-news/quantum-computing-specialist-seeqc-gets-eqt-ventures-backing-in-22-4m-series-a.html</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1093,23 +981,17 @@
           <t>Acko secures $60m in  Series D led by Munich Re Ventures</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/deal-news/acko-secures-60m-in-series-d-led-by-munich-re-ventures.html</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1126,23 +1008,17 @@
           <t>BlackRock taps Global Renewable Power Fund III to make Windvision its first Belgian deal</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/deal-news/blackrock-taps-global-renewable-power-fund-iii-to-make-windvision-its-first-belgian-deal.html</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1159,23 +1035,17 @@
           <t>TA Associates buys into Stirling Square Capital’s DOCU Nordic amid reinvestment from European firm</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
           <t>https://www.altassets.net/private-equity-news/by-news-type/deal-news/ta-associates-buys-into-stirling-square-capitals-docu-nordic-amid-reinvestment-from-european-firm.html</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1192,23 +1062,17 @@
           <t>MKH, led by ex-Warburg Pincus and Bahía principals, launches debut fund</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/mkh-led-by-ex-warburg-pincus-and-bahia-principals-launches-debut-fund/</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1225,23 +1089,17 @@
           <t>Charger Investment, with Levine Leichtman, AIP pedigree, hits wobbly markets with...</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/charger-investment-with-levine-leichtman-aip-pedigree-hits-wobbly-markets-with-debut/</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1262,23 +1120,17 @@
           <t>A placement agent and GP in legal battle over who will...</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/a-placement-agent-and-gp-in-legal-battle-over-who-will-raise-next-fund/</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2020-09-15</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1299,23 +1151,17 @@
           <t>As pandemic taxes connectivity, GI Partners sees ripe environment for investment</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/as-pandemic-taxes-connectivity-gi-partners-sees-ripe-environment-for-investment/</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1336,23 +1182,17 @@
           <t>L Catterton on the verge of closing largest consumer-focused fund to...</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/l-catterton-on-the-verge-of-closing-largest-consumer-focused-fund-to-date/</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1369,23 +1209,17 @@
           <t>Ex-WestView Capital’s exec’s shop Brownstone Equity nears target on debut</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2020-09-10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/ex-westview-capitals-execs-shop-brownstone-equity-nears-target-on-debut/</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2020-09-10</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1402,23 +1236,17 @@
           <t>Mining investor Orion nears halfway point on Fund III’s $2bn target</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/mining-investor-orion-nears-halfway-point-on-fund-iiis-2bn-target/</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2020-09-09</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1439,23 +1267,17 @@
           <t>Veteran tech investor TCV targets $3.25bn for Fund XI amid ideal...</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/veteran-tech-investor-tcv-targets-3-25bn-for-fund-xi-amid-ideal-environment/</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2020-09-09</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1476,23 +1298,17 @@
           <t xml:space="preserve">Webster Equity targets $1bn for first healthcare-only fund </t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/webster-equity-targets-1bn-for-first-healthcare-only-fund/</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2020-09-01</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1509,23 +1325,17 @@
           <t>Dyal’s fifth GP stakes fund targeting $5bn but expected to raise...</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
           <t>https://www.buyoutsinsider.com/dyals-fifth-gp-stakes-fund-targeting-5bn-but-expected-to-raise-much-more/</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2020-08-28</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1539,24 +1349,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>BoE reaction: Will interest rates go negative?</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>US Supreme Court judge Ruth Bader Ginsburg dies of cancer aged 87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/us-supreme-court-judge-ruth-bader-ginsburg-dies-of-cancer-aged-87/</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/bank-of-england-reaction-will-interest-rates-go-negative/</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t xml:space="preserve">US Supreme Court Justice Ruth Bader Ginsburg died of cancer at the age of 87, the court has said. Ginsburg passed away at her home in Washington on Friday, surrounded by her family, following a battle with metastatic pancreatic cancer, the statement said. She was the oldest justice and just second woman to ever sit on the Supreme Court, having been appointed in 1993. The prominent feminist and figurehead for liberals revealed she was undergoing chemotherapy earlier this year, following a recurrence of cancer. “Our Nation has lost a jurist of historic stature,” Chief Justice John Roberts said in a statement on Friday. “We at the Supreme Court have lost a cherished colleague. Today we mourn, but with confidence that future generations will remember Ruth Bader Ginsburg as we knew her – a tireless and resolute champion of justice.” Ginsburg was one of four liberals on the justice court. Her death raises the possibility of US President Donald Trump trying to expand the slender conservative majority on the court ahead of November’s election. He is expected to appoint nominate a conservative replacement as soon as possible. Presidential candidate Joe Biden has said the appointment should be made after the US election. And Ginsburg expressed her strong disapproval of Trump making such a move in the days before her death. “My most fervent wish is that I will not be replaced until a new president is installed,” she wrote in a statement to her granddaughter,  . Reacting to the news of Ginsburg’s death following a rally in Minnesota, Trump said: “I didn’t know that. She led an amazing life, what else can you say?” He later tweeted a statement, calling her a “titan of law” and a “brilliant mind”. Statement from the President on the Passing of Supreme Court Associate Justice Ruth Bader Ginsburg </t>
         </is>
       </c>
     </row>
@@ -1566,30 +1374,32 @@
           <t>CITY A.M.</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Exclusive: Premier League Covid-19 testing firm raises $15m</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>Coronavirus: Johnson faces calls for urgent action and COBRA meeting</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/coronavirus-johnson-faces-calls-for-urgent-action-and-cobra-meeting-as-cases-rise/</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/exclusive-premier-league-covid-19-testing-firm-raises-15m-for-uk-rollout/</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>Prime Minister Boris Johnson has come under pressure to take “decisive action” in the battle against coronavirus as cases rise. Scottish First Minister Nicola Sturgeon has demanded a COBRA meeting within the next 48 hours and echoed the sentiments of London mayor Sadiq Khan regarding the need to learn from March’s mistakes and implement restrictions quickly. “We know from experience earlier in the year that speed and decisiveness of action is important in the fight against COVID,” Sturgeon tweeted. Scotland reported 350 new cases on Saturday and three deaths, while England saw 16 more deaths. Sturgeon said: “There will always be fluctuations in daily figures – that’s why we look at 7 day averages to balance out variations in testing etc. Even with that caveat though, today’s report underlines [the] fact that COVID is rising.” She said the Scottish government “will seek to reach considered decisions as quickly as possible” and urged the public to be “extra careful” and “minimise interactions with other households”. It comes after Khan yesterday warned that London risked coronavirus cases “spiralling out of control” as they did earlier in the year. He said it was “increasingly likely” lockdown measures would be needed in London again. Earlier today, Dr Bharat Pankhania, senior clinical lecturer at the University of Exeter, told Sky News it is “blindingly obvious” what needs to be done to stem the increase in Covid-19 cases. He said: “My advice to Prime Minister Boris Johnson is, don’t sit there and say ‘we are going to do something next week’. It’s tomorrow, it’s today. “You say, ‘as of today please reduce your circulation in pubs, restaurants, transport, offices and all those places where infection transmits’. It’s as straightforward as that.” According to the government’s scientific advisers, the R number, which shows the spread of the virus, is now between 1.1 and 1.4. It has led to fears the number of cases in a few weeks could equal those seen in March and April if decisive action is not taken now.</t>
         </is>
       </c>
     </row>
@@ -1605,24 +1415,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FTSE 100 and US stocks slip amid rising Covid cases</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>Trump predicts Covid-19 vaccine to be available to every American by April</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/trump-predicts-covid-19-vaccine-to-be-available-to-every-american-by-april/</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/ftse-100-slips-as-investors-weigh-up-economic-recovery/</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>US President Donald Trump has said he expects a vaccine for coronavirus to be available for every American by April. Speaking at a news conference on Friday, Trump told reporters he was optimistic of the vaccine being available in just seven months time and that it would be distributed within 24 hours of federal approval. “Hundreds of millions of doses will be available every month, and we expect to have enough vaccines for every American by April,” Trump said. “In a short time we’ll have a safe and effective vaccine and we’ll defeat the virus,” he added. It comes at some odds with the US government scientists’ forecast, with Trump repeatedly clashing with health officials over Covid-19. He said he agreed with Dr Robert Redfield’s assessment that a vaccine will be widely available some time between April and September, but that he also thought it could be much earlier than that. When questioned if he knew more than Redfield, who is the director of the Centers for Disease Control and Prevention, he said: “In many cases I do.” Trump had previously suggested a vaccine could be approved in October, although that timeline looks increasingly ambitious with experts saying it is unlikely. The current US President, who is bidding to stay in office come November’s election, has also suggested reducing the number of coronavirus tests carried out would lower the overall case count and in turn encourage people to return to work and reopen the economy. It’s an approach opposed by public health officials. On Friday, a further 47,486 people in the US tested positive for the disease, according to Covid Tracking Project data, while the national death toll rose by 901.</t>
         </is>
       </c>
     </row>
@@ -1638,24 +1446,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Queen strips Harvey Weinstein of honorary CBE</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>London lockdown restrictions 'increasingly likely', warns Sadiq Khan</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/coronavirus-new-london-lockdown-restrictions-increasingly-likely-while-pm-warns-of-second-wave-across-uk/</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/queen-strips-harvey-weinstein-of-honorary-cbe/</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>London mayor Sadiq Khan has said he does not want to wait for coronavirus cases “to spiral out of control again” before further lockdown measures are introduced in the capital. Khan said it was looking “increasingly likely” that more restrictions would be needed as has been seen in other parts of the country.  Sadiq Khan said: “The prime minister has said that we are now seeing the start of a second wave of Covid-19 across the UK. “Londoners should also know that I am extremely concerned by the latest evidence I’ve seen today from public health experts about the accelerating speed at which COVID-19 is now spreading here in London. “This is made worse by the uncertainty caused by the lack of testing capacity in the capital. This afternoon I held an emergency meeting with London council leaders, the government and Public Health England to discuss the next steps. “It is increasingly likely that, in London, additional measures will soon be required to slow the spread of the virus. We will be considering some of the measures which have already been imposed in other parts of the UK. “I am of the firm view that we should not wait, as happened six months ago, for this virus to again spiral out of control before taking action. “The best thing for both public health and the economy is new restrictions imposed early, rather than a full lockdown when it’s too late – but the government must urgently ensure there is a fully functioning testing system. “I strongly urge all Londoners to be as cautious as possible over this weekend. Please think very carefully about your actions – strictly follow social distancing rules, regularly wash your hands and wear a face covering to help reduce the spread of the virus.” The London mayor’s comments came after Prime Minsiter Boris Johnson warned of an “inevitable second wave” of Covid-19 on Friday as 4,322 new cases of coronavirus were confirmed – the highest since 8 May. “Clearly when you look at what is happening, you’ve got to wonder whether we need to go further than the rule of six that we brought in,” he said. Johnson said the government would keep “everything under review” but a second national lockdown was “the last thing anybody wants”. “We want to keep schools open,” he said. “We want to keep the economy open as far as we possibly can, we want to keep businesses going.” He added: “The only way we can do that is, obviously, if people follow the guidance.”</t>
         </is>
       </c>
     </row>
@@ -1671,24 +1477,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>UK coronavirus ‘R’ rate rises to between 1.1 and 1.4</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>FTSE 100 and US stocks slip amid rising Covid cases</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/ftse-100-slips-as-investors-weigh-up-economic-recovery/</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/uk-coronavirus-r-rate-rises-to-between-1-1-and-1-4/</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The FTSE 100 and US stocks slipped as investors weighed up rising coronavirus cases and the latest decisions by the Bank of England and US Federal Reserve. London’s main stock index fell 0.5 per cent to 6,017 points at 3pm. Mid-cap firms were hit harder, with the FTSE 250 dropping one per cent. On Wall Street, the Nasdaq index slipped 0.1 per cent, continuing a now three-day decline in big tech stocks. The S&amp;P 500 fell 0.3 per cent and the Dow Jones was down 0.4 per cent. Europe’s continent-wide Stoxx 600 rose 0.4 per cent, however. Germany’s Dax was down 0.1 per cent and the French CAC 40 had fallen 0.9 per cent. The downward shift came as investors digested the resurgence of coronavirus around the world. Global cases topped 30m yesterday. And countries from France to South Korea are frantically fighting the virus they once thought they had under control. Investors have also been left somewhat disappointed by the US Federal Reserve, which did not signal any further easing on Wednesday. For the moment, the global economic recovery is still faring well.   investors today digested data that showed   again in August, and now stand four per cent higher than before Covid. Yet the potential for further lockdowns hammered travel stocks. Health secretary Matt Hancock today said he did not rule out another lockdown, although he said it was not being planned. British Airways-owner IAG was the biggest faller on the FTSE 100, plunging 11.6 per cent. Jet engine-maker Rolls Royce shed 4.4 per cent and Intercontinental Hotels fell 4.5 per cent. “Amid growing chatter about a potential two-week nationwide lockdown in October in the UK, it was perhaps no surprise to see investors lose interest in stocks that could be negatively affected by such activity,” said Russ Mould, investment director at broker AJ Bell. UK banks also took a hit after the Bank of England yesterday said it was working out how it would implement negative interest rates should they be needed. Lower interest rates damage banks’ profitability. The FTSE 350 banks index slumped to its lowest level in almost three decades. Investors have dumped bank stocks, worried about coronavirus loans to companies and record-low interest rates. The pound was down 0.2 per cent against the dollar at $1.295. It has had a volatile few weeks as Brexit has returned to the headlines. It was not all bad on the FTSE 100, however. The rise in retail sales in August helped Sainsbury’s shares climb 2.1 per cent and Tesco’s rise one per cent. Wall Street has had a torrid three weeks after investors second-guessed the recent stellar rally in tech stocks and hit the sell button. Investors were left underwhelmed by the US Federal Reserve meeting on Wednesday, after chair Jay Powell did not signal any more stimulus was imminent. Stocks sold off despite the Fed improving its economic forecasts for the US. Also on traders’ minds is the lack of progress between Republicans and Democrats over the next round of fiscal stimulus. “What’s more, tech stocks – which were a driving force behind the outstanding stock market comeback – remain shaky and vulnerable to more downside,” said Craig Erlam, senior market analyst at currency firm Oanda.</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1508,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tiktok and Wechat US downloads to be banned from Sunday</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>HMRC to receive powers to enforce disclosure of assets</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/hmrc-to-receive-powers-to-enforce-disclosure-of-assets/</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/tiktok-and-wechat-us-downloads-to-be-banned-from-sunday/</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>HM Revenue &amp; Customs (HMRC) will be given new powers that will allow it to force financial institutions to provide information about people’s assets. The firms will be required to pass on customer information if served with a “financial institution notice” by HMRC under new measures proposed in the next finance bill. It will mean a court or the individual’s approval is no longer required. Currently consent is provided by the individual or a tax tribunal must approve the request. The financial institutions covered include banks, investment advisers, fund managers, credit unions, insurance companies and credit card issuers. The government’s proposal could come into effect as soon as next year. The thinking behind the idea is that it will make it quicker and easier for HMRC to share information with foreign tax authorities as part of a global crackdown on tax evasion. However, the move has caused concern in some quarters. The Chartered Institute of Taxation said it was “concerned about the loss of independent tribunal oversight, particularly in cases which involve requests for information about UK taxpayers”. Meanwhile, UK Finance said the measures signified a “watering down [of] safeguards”. HMRC said it was important in the battle against tax evasion and avoidance and would help them deal with it in “an appropriate and effective way”. “The new notice will contain numerous safeguards for taxpayers, in line with practice in all other G20 countries, and the power can only be used in specific circumstances where the information is reasonably required for the purposes of checking a taxpayer’s tax position,” the tax authority said.</t>
         </is>
       </c>
     </row>
@@ -1737,24 +1539,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fortnight left until UK coronavirus crisis 'out of control', experts warn</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>Global stocks slip as coronavirus cases rise</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/global-stocks-slip-as-coronavirus-cases-rise/</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/only-a-fortnight-left-until-uk-coronavirus-crisis-out-of-control-experts-warn/</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>Stock markets around the world continued to stutter this week as an increase in Covid-19 cases in across Europe weighed on market sentiment. Wall Street saw early gains on Friday reverse and the S&amp;P 500 and Nasdaq ended the session posting a third straight week of declines, led by this week’s Federal Reserve meeting and coronavirus outbreaks across Europe. The S&amp;P 500 lost 37 points, or 1.12 per cent, to 3,319, ending the week 0.65 per cent down. Meanwhile the Nasdaq dropped 117 points, or 1.07 per cent, to 10,793, declining 0.56 per cent for the week, as tech firms led equities lower. The Dow Jones also fell on Friday, losing 244 points, or 0.88 per cent, to 27,657, while the dollar posted its fifth straight day of declines against the yen. In the UK, the FTSE 100 and FTSE 250 both shed 0.7 and 1.0 per cent respectively, ending the week relatively flat. It comes as the country introduced new coronavirus restrictions in multiple regions and considers a second national lockdown. In Europe, where outbreaks have also continued and caused further lockdown measures to be introduced, France’s Cac 40 finished Friday 1.22 per cent down, while the German Dax slipped 0.77 per cent. Meanwhile, oil prices remained steady for the week, with Brent crude futures finishing at $43.15 a barrel. Gold posted more gains to finish at 1,957 per ounce as investors turned to safe havens again.</t>
         </is>
       </c>
     </row>
@@ -1770,24 +1570,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Restaurant sales buoyed by Eat Out to Help Out legacy</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>Just 6 per cent of UK population has Covid-19 antibodies, SAGE says</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/just-6-per-cent-of-uk-population-has-covid-19-antibodies-sage-says/</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/restaurant-sales-buoyed-by-eat-out-to-help-out-legacy/</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>Only six per cent of the UK’s population has antibodies to Covid-19, minutes from a Scientific Advisory Group for Emergencies (SAGE) meeting earlier this month have revealed. The scientific advisers told the government that just a small proportion of the country had antibodies to coronavirus in the meeting. SAGE also informed officials that there was evidence that these levels may reduce over the preceding months, while some types of antibody may allow a transmissible amount of the virus to be present still. “Evidence from serology studies suggest a small proportion (around 6%) of the UK population has antibodies to COVID-19,” according to the SAGE minutes from 3 September. “There is evidence of antibody levels waning over 2-3 months (medium confidence),” it said. “There is evidence that individuals with certain types and levels of antibody can still have significant viral load and potentially transmit the virus (high confidence).” SAGE went on to warn that the current levels of immunity among the population would be unlikely to mitigate the impact of “a significant winter resurgence”. More than 4,000 new coronavirus cases were confirmed on Friday – the biggest daily increase since 8 May. The government has already introduced local lockdown measures in regions across the UK and Prime Minister Boris Johnson has warned of a second wave being “inevitable”. London mayor Sadiq Khan has also urged for restrictions to be implemented again in the capital before cases “surge out of control” as they did the first time around.</t>
         </is>
       </c>
     </row>
@@ -1803,24 +1601,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>About 5m workers furloughed in July amid uneven recovery</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>BoE reaction: Will interest rates go negative?</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/bank-of-england-reaction-will-interest-rates-go-negative/</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/figures-show-5m-workers-were-furloughed-at-end-of-july/</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The Bank of England (BoE) held monetary policy steady yesterday for the second meeting in a row. Interest rates were left at 0.1 per cent and bond-buying at £745bn in a business-as-usual decision. All nine members of the monetary policy committee (MPC) voted in favour of continuing this monetary policy. But analysts, investors and traders continued to hotly debate how the Bank will proceed in the coming months.   The Bank was relatively upbeat about the economy, saying the recovery had been “a little stronger” than expected. However, it warned that coronavirus could knock it off course. Most of the talk after yesterday’s decision was about negative interest rates. The meeting’s minutes showed that the MPC discussed how they could be implemented, should the economy need them. They also said the BoE will begin “structured engagement” with the Prudential Regulation Authority (PRA) on “policy considerations” in the fourth quarter. Here’s what economists and analysts made of the Bank’s latest meeting. The pound slid yesterday after the meeting’s minutes showed that the Bank was taking the possibility of negative interest rates relatively seriously. However, chief UK economist at Oxford Economics Andrew Goodwin said, the “structured engagement” with the PRA was nothing more than a formality. “That the BoE is merely beginning to consult on the implications of negative rates confirms this is not an active policy option in the near-term,” he said.  Yet Nigel Green, founder and chief executive of De Vere Group, took the minutes more seriously. He said that personal financial strategies should be reviewed to ensure they are “negative interest rate ready”. “This would have been unimaginable even a few months ago. But the shifts have been seismic this year.” Andrew Wishart, UK economist at consultancy Capital Economics, expected quantitative easing (QE) to “remain the tool of choice” for months ahead. Under QE, the Bank creates money and buys government and corporate bonds to keep borrowing costs low. “The Bank will only start working out how to put negative rates into practice in the fourth quarter,” he said. “And even then it will remain concerned about their effectiveness when banks are absorbing loan losses.” The   its fast data had shown the UK’s economic recovery was stronger than it had predicted in August. “Consumption has continued to recover during the summer and is now at around its start-of-year level in aggregate,” it said. Jacqui Douglas, macro strategist at TD Securities, said the statement was “more upbeat than we had expected”. She said that reflected “a slightly stronger rebound into the third quarter”. Douglas also flagged that there was “no mention of the risks to growth into 2021, which is where some MPC members had expressed a lot more concern”. However, the Bank cautioned that the spread of Covid in the UK and Europe could knock the recovery off track. Howard Archer, chief economic adviser to the EY Item Club, said: “The members seemed wary of the downside risks to the recovery, stemming from rising coronavirus cases.” He pointed out that “the possibility of persistently high unemployment” was also one of the Bank’s worries. The Bank gave little indication that it plans to boost stimulus in November. But many analysts predict it will increase its bond-buying target as demand built up during lockdown peters out. Wishart said he predicted “more than the consensus expects”. He said: “We’ve pencilled in an extra £250bn of QE over the course of the next year, with an instalment of £100bn in November.” Pantheon Macroeconomics’ chief UK economist Samuel Tombs said: “Our view remains that the MPC will authorise a further £50bn of asset purchases before the end of this year, and then a further £50bn of purchases in the first quarter [of 2021].”</t>
         </is>
       </c>
     </row>
@@ -1830,34 +1626,28 @@
           <t>CITY A.M.</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Business groups call for early autumn Budget</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>Fortnight left until UK coronavirus crisis 'out of control', experts warn</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/only-a-fortnight-left-until-uk-coronavirus-crisis-out-of-control-experts-warn/</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/business-groups-urge-chancellor-to-unveil-autumn-budget-policies-early/</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The UK only has two to three weeks to improve its Test and Trace scheme before the spread of coronavirus gets “out of control”, experts have warned today. The Independent Sage committee of scientists, chaired by former chief scientific adviser Sir David King, has issued a report to caution government of an upcoming crisis if it cannot get a handle on the infection rate. It recommended that the government take drastic measures to avoid a second national lockdown, such as the immediate suspension of indoor service in pubs and restaurants. Other emergency proposals included: The committee said a thousand of lives could be saved if the government can double the efficacy of the NHS Test and Trace scheme from 16 per cent to 32 per cent, but that it must happen immediately. Karl Friston, a neuroscientist at University College London, said current assumptions that the government has to reach 80 per cent of contacts for every infected person may be “fundamentally misguided”. “Dynamic causal modelling shows a simple doubling of contact tracing efficacy… would bend the curve — and save about 1,000 lives,” he said alongside the report’s release. Friston said the government should re-focus the Test and Trace scheme towards using local public health teams to find, monitor and support traced persons, rather than staffing remote call centres. “The headline from the quantitative modelling of recent trends in new cases is clear: now is the time for ‘shoe-leather’ epidemiology,” he said. “Crucially, this kind of contact tracing can only be done effectively using local knowledge (e.g. cultural aspects), expertise and detective work.” Friston added that such an approach would reduce the demand for tests, which could be better used for testing those without symptoms who have come into contact with a confirmed case. The report comes as the UK’s coronavirus testing infrastructure is reaching its breaking point, as thousands are left unable to book a test in their local area. Meanwhile the virus is now understood to be doubling every seven to eight days, with more than 3,300 new cases   yesterday.</t>
         </is>
       </c>
     </row>
@@ -1873,24 +1663,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Liam Fox through to next round in WTO director general contest</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>Tiktok and Wechat US downloads to be banned from Sunday</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/tiktok-and-wechat-us-downloads-to-be-banned-from-sunday/</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/liam-fox-through-to-next-round-in-wto-director-general-contest/</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>Downloads of popular video app Tiktok and Chinese messaging app Wechat will be banned in the US from Sunday, White House officials have said. However the ban on Tiktok could still be reversed if its owner Bytedance is able to get a deal to offload its ownership over the US service approved by US President Donald Trump. Bytedance has been in talks with software firm Oracle to give the company a minority stake and management of its US data by creating a new entity called Tiktok Global, in a bid to assuage national security concerns over its Chinese origins. US Commerce Department officials said they will not bar additional technical transactions for Tiktok until 12 November, allowing Bytedance additional time to secure a deal even after the ban takes effect. The Commerce Department order will “deplatform” the two apps, which are used by more than 100m people in the United States — meaning people that already have the apps can still use them but will not receive any new updates, and new downloads will be banned. Apple’s App Store, Alphabet’s Google Play and others will be prohibited from offering the apps on any platform “that can be reached from within the United States,” a senior Commerce official told Reuters. However those companies will still be allowed to offer the apps for download outside the US. US Commerce Department secretary Wilbur Ross said in a written statement: “We have taken significant action to combat China’s malicious collection of American citizens’ personal data, while promoting our national values, democratic rules-based norms, and aggressive enforcement of US laws and regulations.” Bytedance, Tiktok and Wechat have yet to respond to the order.</t>
         </is>
       </c>
     </row>
@@ -1906,24 +1694,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>London New Year's Eve fireworks display cancelled due to Covid-19</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>UK coronavirus ‘R’ rate rises to between 1.1 and 1.4</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/uk-coronavirus-r-rate-rises-to-between-1-1-and-1-4/</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/london-new-years-eve-fireworks-display-cancelled-due-to-covid-19/</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The UK’s Covid reproduction or “R” rate has risen to between 1.1 and 1.4, the government has said, in the latest evidence that coronavirus is spreading quickly again through the country. It was up from last week’s figures of between one and 1.2. The government said that the new R rate means “that on average every 10 people infected will infect between 11 and 14 other people”. The Government Office for Science (GOS) also said that coronavirus infections were growing by between two and seven per cent every day. It cautioned the figures should be seen only as “a guide to the general trend”. But the GOS and Scientific Advisory Group for Emergencies  : “There is widespread growth of the epidemic across the country.” The increase in the all-important reproduction rate is in line with the recent increase in cases in the UK. Daily cases have averaged over 3,000 over the last week, whereas they had dropped to below 1,000 in most of June and July. Yesterday, the UK reported 3,395 new cases, up from 1,735 two weeks earlier. In response to rising cases, the government has imposed new restrictions in parts of the north east, the north west and the midlands. Health secretary Matt Hancock said today that he could not rule out another nationwide lockdown. He said it was not currently being planned, however. The reproduction rate is the average number of infections produced by an infected person. For example, if R is two, then each infected person infects two more people. Keeping the R rate below one is crucial to controlling the pandemic. In England, the R rate was between 1.2 and 1.4, the government said. It was highest in the north west and the midlands, at between 1.2 and 1.5. The east of England had the lowest reproduction rate, at one to 1.3. London’s stood at 1.1 to 1.4.</t>
         </is>
       </c>
     </row>
@@ -1939,24 +1725,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Almost half of firms plan to cut or stop hiring amid pandemic</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>Exclusive: Premier League Covid-19 testing firm raises $15m</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/exclusive-premier-league-covid-19-testing-firm-raises-15m-for-uk-rollout/</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/almost-half-of-firms-plan-to-cut-or-stop-hiring-amid-pandemic/</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The company behind the Premier League’s coronavirus testing programme has raised $15m (£11.6m) in fresh funding as it eyes a UK rollout for its new rapid Covid-19 test. Biotech firm Prenetics said it will use the cash injection to advance its rapid testing technology, which promises results in 15 to 30 minutes. Prenetics played a key role in restarting the football season by providing tests for all 20 Premier League teams, and was chosen again as the sole testing partner for the new season. The company also runs testing for the British Boxing Board of Control and the England and Wales Cricket Board, as well as on film productions at Pinewood Studios. But Prenetics is now hoping to expand its test into more general use and is in talks with the governments in the UK and around the world about wider rollouts.  The Hong Kong-based firm will next month launch a pilot with Cathay Pacific and three other major airlines to trial airport testing. The testing could also be used in critical areas such as care homes and schools to help track and combat the spread of coronavirus. The funding round was led by London-based private equity firm Apis Partners, alongside existing investor Alibaba Hong Kong Entrepreneurs Fund. Prenetics chief executive Avi Lasarow told  the technology could provide the government with key data to help it adapt the UK’s coronavirus response. “We think that testing is akin to wearing a seatbelt in a car,” he said. “Without a doubt testing is going to play a major role in our everyday lives until such a time as a vaccine.” It comes as the government faces growing criticism over its testing system, with shortages forcing some Brits to travel hundreds of miles to get tested. Lasarow said the UK had built an effective centralised model for testing, but its reliance on laboratories had caused bottlenecks and limited scalability. “I think they’ve done a great job to get us where we are but their strategy needs to evolve to include the private sector,” he said. Prenetics said its new Covid-19 test was low-cost and did not require a laboratory. But Lasarow added that effective UK-wide testing would rely on a number of different technologies — including so-called digital health passports — coming together.</t>
         </is>
       </c>
     </row>
@@ -1972,24 +1756,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UK small business recovery stalls as firms adapt to Covid</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Queen strips Harvey Weinstein of honorary CBE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.cityam.com/queen-strips-harvey-weinstein-of-honorary-cbe/</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://www.cityam.com/uk-small-business-recovery-stalls-as-firms-adapt-to-covid/</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The Queen has stripped disgraced Hollywood film producer Harvey Weinstein of his honorary award after he was found guilty of sexual assault and rape.  Weinstein is serving a 23-year prison sentence in the US after he was convicted in February of sexually assaulting a former production assistant and raping an actress. He has appealed the conviction.  The Queen has today cancelled Weinstein’s honorary CBE. The decision was made at a meeting of the Honours Forfeiture Committee, which is independent from government. “The Queen has directed that the appointment of Harvey Weinstein to be an Honorary Commander of the Civil Division of the Most Excellent Order of the British Empire, dated 29 January 2004, shall be cancelled and annulled,” an official announcement said, according to Reuters. More than 100 women, including famous actresses, came forward to accuse Weinstein of sexual misconduct stretching back decades.  The allegations against Weinstein, which he has denied, kicked off the #MeToo movement.  At his trial earlier this year, prosecutors portrayed him as a serial predator who preyed upon women, manipulating them with promises of career advancement in Hollywood.  “The young struggling dreamers were not even people to him. He could take what he wanted knowing there was very little anyone could do about it,” Manhattan assistant district attorney Joan Illuzzi told the court. Weinstein said he was worried about the “thousands of men who are losing due process” during the #MeToo movement.</t>
         </is>
       </c>
     </row>
@@ -2008,21 +1790,19 @@
           <t>Outschool Raises $45M in Series B Funding</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/outschool-raises-45m-in-series-b-funding.html</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/outschool-raises-45m-in-series-b-funding.html</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a San Francisco, CA-based  K-12 education marketplace, raised $45M in Series B funding.  The round was led by Lightspeed Venture Partners with participation from, Reach Capital, Union Square Ventures, SV Angel, FundersClub, Y Combinator and others.   The company intends to use the funds to accelerate hiring and product development for its K-12 education marketplace.  Led by Amir Nathoo, Co-founder and CEO, Outschool is an online marketplace of live, interactive classes that connect teachers and learners over real-time video in a small-group setting. Its offerings are created by independent teachers and include a wide variety of enrichment classes such as cooking, piano and language lessons as well as academic classes such as grammar bootcamps and geometry. Outschool classes are engaging and diverse with classes like: surviving a Zombie Apocalypse During the American Colonial Period, Ready, Set, Bake: Tasty Cupcakes, STEM Design: Build a Satellite, Grammar Detectives in the Rainforest, Bring Your Chickens to Class, and A Taste of Fashion Design . Classes on Outschool range from one-time enrichment lessons to semester-long core courses, are offered across all subjects, and for learners range from age 3 to 18.  18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2038,24 +1818,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>dLocal Receives  $200M Investment; Achieves $1.2B Valuation</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>Fixably Secures $2M in Funding</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/fixably-secures-2m-in-funding.html</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/dlocal-receives-200m-investment-achieves-1-2b-valuation.html</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, an Espoo, Finland-based provider of a software platform allowing repair shops and technicians to manage their workflow efficiently to get hardware fixed, secured $2M in funding. The round was led by Icebreaker.vc – the early stage venture capital fund operating in Finland, Estonia and Sweden.  The company intends to use the funds to accelerate their US expansion whilst increasing European and APAC presence. Launched in 2019 by Joel Mansnerus, CEO, Fixably provides a service management system specifically designed and developed for Apple Authorized Service Providers.  It integrates all tools needed to perform and follow-up repairs, handle internal resources and workflows, monetary transactions, logistics, customer communication, Apple requirements and more. The software is configurable and scales for all types and sizes of businesses, providing support for business proven processes.  Fixably, boasts rapid growth through customers in three different continents, creating a gross transactional value of more than $100M.  With over 1 million repairs completed so far in 2020, the company expects to increase this amount to 3 million repairs by the end of 2021.  Beyond this, the goal is to extend the life of one billion devices. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2071,24 +1849,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WireBarley Raises $10M in Series B Funding</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>dLocal Receives  $200M Investment; Achieves $1.2B Valuation</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/dlocal-receives-200m-investment-achieves-1-2b-valuation.html</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/wirebarley-raises-10m-in-series-b-funding.html</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a Montevideo, Uruguay-based cross-border payment platform connecting global merchants to emerging markets, received up to $200m new investment.  The deal, which is subject to customary regulatory approvals, was led by existing investor General Atlantic, with participation from Addition. In conjunction with the funding, Luiz Ribeiro, Principal at General Atlantic, will join the dLocal Board of Directors.  Following the round, dLocal is now valued at $1.2 billion. The company intends to use the funds to accelerate global expansion, targeting 13 new markets over the next 18 months, including Central America, Africa, and Southeast Asia countries, and further build and refine its product set.  Founded in 2016 and led by Sebastián Kanovich, CEO, dLocal is a cross-border payment processor operating in Uruguay, India, Morocco, Nigeria, and South Africa.  Its API platform is designed to handle and facilitate mass online payments across Latin America, APAC, the Middle East, and Africa. By operating as a merchant’s local payments processor in each country, dLocal empowers global merchants to reach billions of customers, accept payments, send payouts, and settle funds globally.  The company has been profitable every year, achieving over 100% annual organic growth over the past four years and now serving 450 merchants in 20 countries, with connectivity to more than 300 alternative payment methods. Its global customers include Amazon, DiDi, Gearbest, Nike, Shopify, Spotify, Uber, Visa/Earthport, Zara, and many others. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2104,24 +1880,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fixably Secures $2M in Funding</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>Rebelstork Closes $2M Seed Funding Round</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/rebelstork-closes-2m-seed-funding-round.html</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/fixably-secures-2m-in-funding.html</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a Toronto, Canada-based marketplace that allows the buying and selling of expert-curated quality baby gear, closed a $2M seed funding round.  The round was raised by a group of high net worth individuals.  The company intends to use the funds for the continued growth and scaling of the business.  Led by Emily Hosie, CEO and Founder, Rebelstork is a marketplace platform enabling the buying and selling of overstock, open box and quality used baby gear. The company’s proprietary pricing algorithm provides accurate and fair pricing for quality used goods based on a number of variables such as make, model, condition and market demand. Through the website, parents can schedule pickups of their outgrown goods, which are taken to the company’s Toronto facility to be quality checked and condition rated, photographed and listed.  Rebelstork is a certified pending B Corporation. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2137,24 +1911,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Stemson Therapeutics Secures $7.5M in Seed Financing</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>WireBarley Raises $10M in Series B Funding</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/wirebarley-raises-10m-in-series-b-funding.html</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/stemson-therapeutics-secures-7-5m-in-seed-financing.html</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a Seoul, South Korea-based fintech startup specializing in global remittance services, raised $10m in Series B funding.   Backers included Magna Investment, Shinsegae I&amp;C and Dt &amp; Investment.  Led by CEO Joong-Won Yoo, WireBarley provides fully contactless financial services via its mobile app and web platform. The company is operating in 5 countries such as the US, Canada, Australia, South Korea, and New Zealand with 21 recipient countries. It has established a global network with 80 remittance corridors.  The company intends to use the funds to strengthen its global remittance service capabilities for individual customers and expand into the B2B field. In addition, regional expansion is on the way. Hong Kong will launch in October and more recipient countries including those in Europe and the Middle East will be added in the future. Furthermore, WireBarley will invest in developing and launching new products over the next few months such as the Multi-Currency Wallet services and additional banking services for North America.  The company gained more than 400,000 app downloads and accumulated well over than $400M in revenue to date.  18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2170,24 +1942,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rebelstork Closes $2M Seed Funding Round</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>Holidu Raises Over $4M from Kees Koolen</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/holidu-raises-over-4m-from-kees-koolen.html</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/rebelstork-closes-2m-seed-funding-round.html</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a Munich, Germany-based travel tech company, received an investment of more than €4m former Booking.com CEO Kees Koolen.  Koolen has invested into the company from his personal fund as part of a €5m extension to the €40m Series C round of the previous year. Founded by brothers Johannes and Michael Siebers in 2014,  Holidu provides a search engine for vacation rentals which allows travelers to book the ideal accommodation listed by Holidu’s 1,000+ partners worldwide. The company also provides holiday rental owners with a software and service solution under the   brand. This enables owners to increase their bookings by distributing properties to the largest travel websites, synchronizing calendars, and creating multilingual descriptions and professional photos.  The company turned profitable in May and since then generated seven-digit positive EBIT figures. In July alone, more than 27 million users visited the website, resulting in a 2.6x growth in year-on-year bookings and more than €130 million of newly generated bookings that month. Holidu now has a team of more than 200 people. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2203,24 +1973,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tonal Raises $110M in Funding</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>Stemson Therapeutics Secures $7.5M in Seed Financing</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/stemson-therapeutics-secures-7-5m-in-seed-financing.html</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/tonal-raises-110m-in-funding.html</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a San Diego, CA-based maker of a therapeutic solution to cure hair loss, raised $7.5m in seed financing.  The round was led by Allergan Aesthetics, an AbbVie Company, and impact investor Fortunis Capital. Stemson aims to restore human hair growth with a novel approach using the patient’s own cells to generate new hair follicles. The seed funding supports the preclinical development of Stemson’s Induced Pluripotent Stem Cell (iPSC) based technology, which is capable of producing the cell types required to initiate hair follicle growth.  The financing allows the company to expand its management team and R&amp;D resources, while recent approval of a foundational patent provides stability surrounding the company’s efforts to develop its radical solution for hair growth. The additions of Meghan Samberg, Ph.D. as Vice President of R&amp;D and Preclinical Development, and Cenk Sumen, Ph.D. as Chief Technology Officer, complement the work of Stemson’s cofounder and Chief Scientific Officer, Dr. Alexey Terskikh and the R&amp;D team.  The company is led by Geoff Hamilton, cofounder and chief executive officer.  Stemson received approval in the United States of its cornerstone Human Induced Pluripotent Stem Cell (iPSC) method patent licensed exclusively from the Sanford Burnham Prebys Medical Discovery Institute. The patent covers a novel process developed by Dr. Terskikh to differentiate iPSC into dermal papilla cells, the cell type primarily responsible for controlling hair follicle generation and hair cycling. The patent secures foundational methods using iPSC cell therapy to grow hair. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2236,24 +2004,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Lightspeed Venture Partners Launches Southeast Asia Operations</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>Joint Academy Raises $23M in Series B Funding</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/joint-academy-raises-23m-in-series-b-funding.html</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/lightspeed-venture-partners-launches-southeast-asia-operations.html</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a Malmo, Sweden-based digital health company tackling the increasing prevalence of chronic joint pain, raised $23M in Series B funding.  The round was led by international investment company Kinnevik with participation from existing investors Karl-Johan Persson (chairman of H&amp;M) and Alfvén &amp; Didrikson. The company, which has raised $34.2m to date, intends sto use the funds to accelerate growth in the U.S. and to further expand its offering throughout Europe.   Co-founded by CEO Jakob Dahlberg and his father and Chief Medical Officer Leif Dahlberg, Joint Academy is a clinical evidence-based digital treatment for chronic joint pain, which connects patients with licensed physical therapists. Since being founded in Malmo, Sweden in 2014, the company has treated 25,000 patients who suffer from chronic hip and knee pain by connecting them with licensed physical therapists through its app. Initially, a patient
+receives an evaluation from one of the 400 physical therapists on the platform
+who will continuously follow up on the treatment and answer any questions the
+user may have. Each day, patients are given personalised exercises that are designed to reduce pain and adjust as the patient’s condition improves. Progress can be tracked from one week to the next, which boosts motivation and improves treatment results, while reminders keep them on-track. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2272,21 +2041,19 @@
           <t>Accenture to Acquire Salt Solutions</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/accenture-to-acquire-salt-solutions.html</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/accenture-to-acquire-salt-solutions.html</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>Accenture (NYSE: ACN) is to acquire  , a Würzburg, Germany-based technology consultancy.  The amount of the deal –  whose completion is subject to customary closing conditions – was not disclosed.  Led by Maximilian Brandl, CEO, Salt implements and maintains IT systems for production, operations and logistics at leading German automotive, manufacturing, consumer goods and chemicals companies.  The company is a certified SAP Gold Partner and has additional offices in Berlin, Dresden, Düsseldorf, Munich and Stuttgart. The acquisition will help Accenture build cloud-based industrial internet of things (IoT) platforms that speed up and optimize clients’ production and logistics and enable them to reduce quality and waste issues along the entire supply chain. Salt Solutions will join  , which helps clients improve how they operate factories and plants. SALT Solutions brings a team of more than 500 highly skilled professionals with deep expertise in manufacturing and supply chains systems including, but not limited to, SAP manufacturing software.  SALT Solutions will be bolster Accenture’s digital manufacturing and operations capabilities, which Accenture has been growing through acquisitions in different markets. These include PLM Systems in Italy, Callisto Integration in Canada, Silveo in France and Enterprise System Partners in Ireland. It will also follow other acquisitions Accenture has made to strengthen Industry X in Germany, which include embedded software company ESR Labs, technology consultancy Zielpuls and strategic design consultancy designaffairs. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2302,24 +2069,106 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Holidu Raises Over $4M from Kees Koolen</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>NASDAQ: The Story Of Two Swedish iGaming Firms About To Merge</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/nasdaq-the-story-of-two-swedish-igaming-firms-about-to-merge.html</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/holidu-raises-over-4m-from-kees-koolen.html</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>NetEnt and Evolution Gaming are two Swedish born
+iGaming firms that are showing remarkable success. Both companies are trading
+in SEK on the Stockholm NASDAQ and Evolution Gaming is set to take NetEnt under
+its wing as it did eZugi Gaming. In one of the most competitive online industries in
+the world, these two firms are currently in a head-to-head battle for market
+share in the live dealer and virtual table gaming niche markets while NetEnt
+also produces online video slots. Their games accept both cryptocurrency and fiat
+currency online betting and support multiple languages making them both global
+sensations in the online casino industry and fierce rivals.  However, that is all about to change in a deal said to
+be worth €1.9 billion. Evolution Gaming is poised to buy all
+series A and series B NetEnt shares on the  
+Stockholm. The trade-off deal means NetEnt gets 0.1306 of every Evolution
+Gaming share in exchange. The combination of the two firms will dominate the
+iGaming industry as the two biggest names in the game will no longer be
+competing. It is a move that makes perfect sense because both companies are
+showing success on the NASDAQ as we report below. Despite the competition, Evolution Gaming and NetEnt
+Casinos are still recording record revenues making them attractive investments.
+They are the two largest live casino platform providers and are about to merge
+under one company which will effectively blow the competition away. You find
+out  . Both firms lock horns in the live casino gaming
+environment and virtual table gaming arenas and their games are available at
+online casinos around the globe.  Meanwhile, NetEnt also has another revenue stream coming
+from its vast collection of immensely popular online video slots. NetEnt’s
+venture in the video slots industry was one of the firm’s first endeavours into
+the iGaming industry while Evolution is currently not in the business of slot
+development.  NetEnt is famous for its highly engaging progressive
+jackpot slot games that can potentially pay out millions of Euros in prize
+money, while the firm also has over one hundred non-jackpot slots that come
+with RTPs of up to ninety-nine per cent and high bet multipliers. The developer also releases at least two brand new
+slot games every month, keeping the firm’s brand name fresh in the minds of its
+slot loving followers. It is fair to say business is booming for NetEnt in
+the slot industry despite competing with over one hundred slot developers in
+this sphere while the live casino industry only has around twenty plus
+competitors with Evolution Gaming being NetEnt’s main competitor where both
+firms are the leading platforms with Microgaming, Playtech, and Pragmatic Play
+just trailing. Over in the virtual table game genre of the iGaming
+industry, Evolution Gaming is a new player in the market and has impressed with
+its fresh-looking VR style roulette, blackjack, and baccarat tables. While
+NetEnt designs virtual roulette, baccarat, and Texas Hold’em Pro table games.  This is once again another incredibly competitive
+arena in the iGaming industry, with around forty software developers competing
+for market share. Right now, games from both firms can be found in all
+the world’s major iGaming countries such as the UK, Sweden, Germany, Canada,
+Australia, New Zealand, and India. Impressively, Evolution Gaming is also penetrating the
+US market, which is an extraordinary feat considering the multiple barriers to
+entry since the US government put in federal financial laws that restrict US
+citizens from gambling online. However, state laws in place such as Delaware,
+New Jersey, and Nevada open some doors for online casinos and Evolution Gaming
+is hot on the trail. These two firms are at the top of their game in every
+field they compete in, and neither show any signs of slowing. This is reflected
+in their exciting SEK stock prices that continue to go from strength to
+strength. Currently, the Evolution Gaming Group has over 181
+million shares floated and is listed under the ‘Travel and Leisure’ sector and
+has 11,832 recorded trades while the trade volume is 833,522. Its impressive performance on the stock market over
+the last 52 weeks has seen its stock rise from 185 to 701, and in 2020 each
+share began at 269 and rose to 701. The iGaming brand’s major push began in 2019 when in
+January shares were valued at 109 and slowly steamed rolled up to 269 over the year.
+It is 2020 that then saw the firm’s share prices rise 160%. NetEnt has 206 million shares floated and is also
+listed under the ‘Travel and Leisure’ sector. The number of trades on the
+Nasdaq currently stands at 665 and the trade volume lists right now as 376,669. Its performance is equally as impressive as its live
+casino platform rival, although shares are not as valuable. Its 52-week stats
+show a rise from 15.3 to 90 and the same figures show for the firm’s 1-year
+total. NetEnt’s push in share price rises began way back in
+2013 after years of share price resistance between 10 and 12. From 2013 to
+mid-2016 shares steadily rose year on year to a high of 91 before dropping off
+to 15.3 by the end of 2019. 2020 is the return of NetEnt on the NASDAQ with a
+rise in the first 3 quarters to its current standing of 90. Currently, there are hundreds of competitors and new
+software developers entering the market mainly under the wing of top iGaming
+software firms such as Microgaming and Playtech.  For NetEnt’s video slot market this is not ideal, but
+its brand is still revered amongst slot fans mainly because NetEnt has been
+around since the beginning of time. Whether Evolution Gaming’s take over will
+rebrand NetEnt’s slots or continue with the world-famous NetEnt brand name
+labelling the video slot’s division as ‘Evolution Gaming NetEnt Slots’ is not
+public information at this time.  The virtual table gaming market is also seeing its
+fair share of new entrants and we are about to see existing brands and an
+increase in new entrants in the live dealer sphere.  Whether the new competition affects iGaming companies
+floated on stock markets remains to be seen.  However, with Evolution Gaming and NetEnt the two most
+used live dealer platforms in online casinos, it seems that this side of the
+business is already locked up. Evolution Gaming also owns the eZugi live dealer
+platform. With this in mind, it seems inevitable that the combination of both
+of these firms and their impressive NASDAQ performances makes Evolution Gaming
+shares an attractive investment. Adding to this, the iGaming industry is set for a huge
+rise in players and revenues. According to  ,
+in 2019 the industry was worth 58.9 billion and by 2023 it should rise to 92.9
+billion. That is a formidable 57% rise which points to this market as the ideal
+sector for investment.</t>
         </is>
       </c>
     </row>
@@ -2335,24 +2184,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Joint Academy Raises $23M in Series B Funding</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>Infarm Raises $170M in First Close of Series C Funding</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/infarm-raises-170m-in-first-close-of-series-c-funding.html</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/joint-academy-raises-23m-in-series-b-funding.html</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a Berlin, Germany-based provider of cloud-connected farming facilities, raised $170M in the first close of its Series C funding.  The equity and debt round –  which is expected to reach over $200m – was led by impact investing firm LGT Lightstone with participation from Hanaco, Bonnier, Haniel, and Latitude, and supported by existing investors Atomico, TriplePoint Capital, Mons Capital and Astanor Ventures. The investment raise brings Infarm’s funding total to more than $300m to-date. The company intends to use the funds to deepen the regional and local penetration of its global farming network and complete development of its farms.  Founded in Berlin in 2013 by Osnat Michaeli and the brothers Erez and Guy Galonska, Infarm is advancing a new generation of vertical cloud-connected farms, capable of generating the crop-equivalent of acres of farmland and amplifying the diversity of produce currently available through vertical farming.  The farms are placed in various locations in the city, like supermarkets, restaurants and distribution centers, so that vegetables grow and are harvested close to the moment of purchase or consumption.  With a multinational team of 600 people globally, Infarm has partnered with more than 30 major food retailers including Albert Heijn, Aldi Süd, Amazon Fresh, Auchan, Casino, E.Leclerc, Edeka, Empire Company Ltd (Safeway, Sobeys, ThriftyFoods), Farmdrop, Intermarché, Irma, Kinokuniya, Kroger, Marks &amp; Spencer, Metro, Migros, Selfridges and Selgros in Canada, Denmark, France, Germany, Japan, Luxembourg, the Netherlands, the United Kingdom, the United States and Switzerland, deployed more than 1000 farms in stores and distribution centres. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2368,24 +2215,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NASDAQ: The Story Of Two Swedish iGaming Firms About To Merge</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>Treez Raises $13M in Series B Funding</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/treez-raises-13m-in-series-b-funding.html</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/nasdaq-the-story-of-two-swedish-igaming-firms-about-to-merge.html</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, an Oakland, Calif.-based company focused on retail automation for the cannabis industry supply chain, closed a $13m Series B funding round.  The round was led by Intrinsic Capital Partners.  The new funding will be used to further accelerate expansion into legal state retailers for B2C and B2B commerce, as well as extend the company’s reach through APIs into best-of-breed tech stacks (ERP, CRM and other complementary systems).  Founded in 2016 by John Yang and Shareef El-Sissi, Treez  is an enterprise-grade business management platform serving the cannabis supply chain. The platform solution benefits brands and retailers, with point-of-sale (POS), integrated payments, grow and data software solutions. Included are analytics for real-time insights and industry cataloging technology that allows greater automation. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2401,24 +2246,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Treez Raises $13M in Series B Funding</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>Lightspeed Venture Partners Launches Southeast Asia Operations</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/lightspeed-venture-partners-launches-southeast-asia-operations.html</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/treez-raises-13m-in-series-b-funding.html</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>Global venture capital firm   has launched its Southeast Asia operations.  Headquartered in Singapore, the firm will partner and support the region’s entrepreneurs building disruptive companies.  Lightspeed will deploy capital for its Southeast Asian investments from its global funds, having raised US$4 billion in 2020. In Southeast Asia as well, the firm is actively engaging with ventures right from their early stages, in sectors like commerce, fintech, edtech and SaaS among many others. Lightspeed has already invested in Grab, social commerce platform Chilibeli, B2B marketplace app Ula, enterprise artificial intelligence software provider NextBillion.ai as well as fulfilment and shipping gateway company Shipper. Additionally, many of the firm’s portfolio companies are scaling up business in Southeast Asia and have regional headquarters in Singapore – including Snap, OYO Rooms, Yellow Messenger and Darwinbox among others. Many ventures are also building multi-location businesses with engineering talent from India and other areas. Lightspeed will expand its Southeast Asian activities from its regional office in Singapore. The Southeast Asia team comprises: Over the last 20 years, Lightspeed has helped entrepreneurs in diverse industries scale into multi-billion-dollar companies, some of which are Snap (US), Nutanix (US), Pinduoduo (China), Man Bang group (China), Grab (Asia), OYO Rooms (India), Udaan (India) and Byju’s (India). The firm has engaged with each of its investments to enable its founders to succeed – leveraging its global portfolio network, customer introductions, talent and marketing support and growth capital.  18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2434,24 +2277,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Infarm Raises $170M in First Close of Series C Funding</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>Imagine Impact Closes Series A Financing</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/imagine-impact-closes-series-a-financing.html</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/infarm-raises-170m-in-first-close-of-series-c-funding.html</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a Los Angeles, CA-based content accelerator and online marketplace startup founded by Brian Grazer and Ron Howard, closed its Series A financing round.  The round was led by Benchmark and Bill Gurley, longtime Benchmark partner, will join the board.  The investment establishes Imagine Impact as a new, stand-alone company, Impact Creative Systems, led by Impact CEO Tyler Mitchell, and will support the startup’s continuing expansion in technology. Impact is launching   this fall – an online marketplace and professional networking platform designed specifically for entertainment industry professionals to help bring efficiency and access to Hollywood.  Founded in September 2018, Imagine Impact discovers, cultivates and empowers creative storytellers around the world through a curation and development system that helps them create their best work. Impact has also launched  , an online content marketplace and social networking platform designed for entertainment industry professionals. Imagine Impact has built a network of 30,000 writers from over 80 countries and developed 72 projects, 25 of which have been set up 24 at major studios throughout the industry, including: Netflix, Sony, Amblin, Legendary, Village Roadshow, Sony and more; Creators have been signed by major agencies and management companies, including CAA, WME, UTA, Verve, Anonymous Content, Lit Management, Management 360, 3Arts and more. Impact’s Creative Network is used by industry producers and executives from over 300 companies, including ABC, Amazon, CBS, Disney, HBO, Netflix, NBC, Paramount, Universal, and Warner Brothers. Impact also recently launched a podcast, which is an outgrowth of its speaker series that accompanies the accelerator.  “IMPACT: The Podcast” features conversations with world renowned artists such as: Peter Berg (Friday Night Lights, Lone Survivor); Issa Rae (Insecure); Judd Apatow (40 Year Old Virgin, Trainwreck): The RZA (Wu-Tang: An American Saga): Dave Burd aka Lil Dicky (Dave): Jeff Schaffer (Curb Your Enthusiasm); Saladin Patterson (The Last O.G.); Academy Award winners Frances McDormand (Three Billboards, Fargo), Damien Chazelle (La La Land, Whiplash)and Akiva Goldsman (A Beautiful Mind, Cinderella Man), and many more. The Series A follows Impact’s recent announcements, including: a deal with Netflix utilizing Impact’s proprietary systems to source and develop original feature films from writers around the world across four specific genres for Netflix; as well as the recent launch of Impact Australia, its first international accelerator which was financed by Screen Australia and Film Victoria, along with the state and territory screen agencies. 18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2467,24 +2308,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Imagine Impact Closes Series A Financing</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>Tonal Raises $110M in Funding</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
+          <t>https://www.finsmes.com/2020/09/tonal-raises-110m-in-funding.html</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://www.finsmes.com/2020/09/imagine-impact-closes-series-a-financing.html</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
+          <t>, a San Francisco, CA-based personal training platform that combines proprietary digital weight, artificial intelligence, and expert-led coaching, raised $110M in funding.  Backers included the Growth Fund of returning investor L Catterton, as well as returning investors Sapphire Sport, Shasta Ventures, Mayfield, Evolution Media, and THVC. New investors include Delta-v Capital, the Amazon Alexa Fund, and Mousse Partners. Additional strategic investors include Stephen Curry, Paul George, Michelle Wie, Rudy Gay, Kyle Rudolph and Bobby Wagner. Previous investors include Serena Williams, Klay Thompson, and Tony Gonzalez.  The company intends to use the funds to accelerate marketing initiatives and scale its supply chain and logistics to meet demand, while also rolling out new software-driven product innovations and a wider breadth of content. In addition, Tonal is researching applications of digital strength training with Mayo Clinic. Led by Aly Orady, CEO, Tonal is an intelligent home gym and personalized company providing people with the equipment, technology, and guidance to reach their fitness goals. By using a proprietary digital weight system instead of metal weights, Tonal can generate 200 pounds of resistance and replicate every machine in the weight room with a fraction of the equipment. It is used by hundreds of professional athletes and sports franchises.  The company has a number of partnerships including Mayo Clinic, the Four Seasons Palo Alto, Andaz Scottsdale Resort &amp; Bungalows, Waldorf Astoria Boca Raton Resort and Club, as well as all Proper Hotel and Residences locations.  18/09/2020</t>
         </is>
       </c>
     </row>
@@ -2503,23 +2342,17 @@
           <t>Brightstar Capital to buy majority stake in Brightstar Corp</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/brightstar-capital-to-buy-majority-stake-in-brightstar-corp/</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2536,23 +2369,17 @@
           <t>Green Courte buys airport parking facility</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/green-courte-buys-airport-parking-facility/</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2569,23 +2396,17 @@
           <t>Stirling Square and TA Associates invest in DOCU Nordic Group</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/stirling-square-and-ta-associates-invest-in-docu-nordic-group/</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2606,23 +2427,17 @@
           <t>GI’s purchase of Sectigo values the company at ~$900m</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/gis-purchase-of-sectigo-values-the-company-at-900m/</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2643,23 +2458,17 @@
           <t>Centerbridge, Vistria team up in $1.4bn deal for Wellspring’s Help at Home</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/centerbridge-vistria-team-up-in-1-4bn-deal-for-wellsprings-help-at-home/</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2676,23 +2485,17 @@
           <t>Audax-backed Axia acquires Ocean OB/GYN Associates</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/audax-backed-axia-acquires-ocean-ob-gyn-associates/</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2713,23 +2516,17 @@
           <t>MetLife to buy PE-backed Versant Health for $1.68bn: Reuters</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/metlife-to-buy-pe-backed-versant-health-for-1-68bn-reuters/</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2746,23 +2543,17 @@
           <t>EQT to buy Italian online real estate classifieds platform Casa.it</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/eqt-to-buy-italian-online-real-estate-classifieds-platform-casa-it/</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2779,23 +2570,17 @@
           <t>JMI funds Bloomerang</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/jmi-funds-bloomerang/</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2812,23 +2597,17 @@
           <t>PE-backed High Street buys two insurance companies</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
           <t>https://www.pehub.com/pe-backed-high-street-buys-two-insurance-companies/</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2845,23 +2624,17 @@
           <t>Calpers moves to enhance control of investment oversight</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/calpers-moves-to-enhance-control-of-investment-oversight-20200918</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2882,23 +2655,17 @@
           <t>Questa Capital corrals $348m for second healthcare fund</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>September 18, 2020</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/questa-capital-corrals-348m-for-second-healthcare-fund-20200918</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>September 18, 2020</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2919,23 +2686,17 @@
           <t>Ardian raises €2bn for new fund in six months</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>September 16, 2020</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>September 16, 2020</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/ardian-raises-e2bn-for-new-fund-in-six-months-20200916</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>September 16, 2020</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2956,23 +2717,17 @@
           <t>Clayton Dubilier &amp; Rice collects nearly $12bn so far for new buyout fund</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>September 14, 2020</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>September 14, 2020</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/clayton-dubilier-rice-collects-nearly-12bn-so-far-for-new-buyout-fund-20200914</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>September 14, 2020</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2993,23 +2748,17 @@
           <t>VC investor Sequoia launches a Chinese hedge fund</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>September 10, 2020</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>September 10, 2020</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/venture-investor-sequoia-launches-a-chinese-hedge-fund-20200910</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>September 10, 2020</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3026,23 +2775,17 @@
           <t>US pension fund predicts quick rebound in its PE portfolio</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>September 10, 2020</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>September 10, 2020</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/us-pension-fund-predicts-quick-rebound-in-its-private-equity-portfolio-20200910</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>September 10, 2020</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3059,23 +2802,17 @@
           <t>Bridgepoint hits £1.5bn hard cap on lower mid-market fund</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>September 8, 2020</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>September 8, 2020</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/bridgepoint-hits-1-5bn-hard-cap-on-lower-middle-market-fund-20200908</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>September 8, 2020</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3092,23 +2829,17 @@
           <t>Raising an energy fund today can rely on one deep pocketed investor</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>September 8, 2020</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>September 8, 2020</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/raising-an-energy-fund-today-can-rely-on-one-deep-pocketed-investor-20200908</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>September 8, 2020</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3129,23 +2860,17 @@
           <t>Deutsche Private Equity raises €1bn for its fourth fund</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>September 8, 2020</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>September 8, 2020</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/deutsche-private-equity-raises-e1bn-for-its-fourth-fund-20200908</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>September 8, 2020</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3162,23 +2887,17 @@
           <t>Nordic Capital’s tenth fund debuts with €500m deal</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>September 4, 2020</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>September 4, 2020</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/nordic-capitals-tenth-fund-debuts-with-e500m-deal-20200904</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>September 4, 2020</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3195,23 +2914,17 @@
           <t>Munich Private Equity Partners launches €250m fund-of-</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>September 2, 2020</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>September 2, 2020</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/munich-private-equity-partners-launches-e250m-fund-of-funds-20200902</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>September 2, 2020</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3228,23 +2941,17 @@
           <t>US pension system ramps up co-investing</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>September 2, 2020</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>September 2, 2020</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/us-pension-system-ramps-up-co-investing-20200902</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>September 2, 2020</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3265,23 +2972,17 @@
           <t>Thoma Bravo approaches finish line for a more than $21bn fundraising haul</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>September 1, 2020</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>September 1, 2020</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/thoma-bravo-approaches-finish-line-for-a-more-than-21bn-fundraising-haul-20200901</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>September 1, 2020</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3298,23 +2999,17 @@
           <t xml:space="preserve">Most European pension </t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>August 28, 2020</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>August 28, 2020</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/most-european-pension-funds-examine-climate-change-risks-in-their-investments-20200828</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>August 28, 2020</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3335,23 +3030,17 @@
           <t xml:space="preserve">EU regulators call for clarity on Brexit rules for private equity and hedge </t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>August 27, 2020</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>August 27, 2020</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/eu-regulators-call-for-clarity-on-brexit-rules-for-private-equity-and-hedge-funds-20200827</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>August 27, 2020</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3368,23 +3057,17 @@
           <t>Bain Capital’s new fund terms offer fee flexibility and clawbacks</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>August 27, 2020</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>August 27, 2020</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/bain-capitals-new-fund-terms-offer-fee-flexibility-and-clawbacks-20200827</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>August 27, 2020</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3401,23 +3084,17 @@
           <t>Private markets prove resilient during 2020</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>August 26, 2020</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>August 26, 2020</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/private-markets-prove-resilient-during-2020-20200826</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>August 26, 2020</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3434,23 +3111,17 @@
           <t>KKR hires fundraising specialist amid real estate push</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>August 26, 2020</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>August 26, 2020</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/kkr-hires-fundraising-specialist-amid-real-estate-push-20200826</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>August 26, 2020</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3467,23 +3138,17 @@
           <t>State panel to investigate complaints of Calpers investment conflict</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>August 25, 2020</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>August 25, 2020</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/state-panel-to-investigate-complaints-of-calpers-investment-conflict-20200825</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>August 25, 2020</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3500,23 +3165,17 @@
           <t>HSBC closes its second private equity fund at $260m</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>August 20, 2020</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>August 20, 2020</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
           <t>https://www.penews.com/articles/hsbc-closes-its-second-private-equity-fund-at-260m-20200820</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>August 20, 2020</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3533,23 +3192,17 @@
           <t>Bridgepoint hits £1.5bn hard-cap on latest lower mid-market fund</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>8 September 2020</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8 September 2020</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/bridgepoint-hits-1-5bn-hard-cap-on-latest-lower-mid-market-fund/</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>8 September 2020</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3566,23 +3219,17 @@
           <t>Virtual fundraising: UK’s Tenzing on how to do it</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>7 September 2020</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>7 September 2020</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/virtual-fundraising-uks-tenzing-on-how-to-do-it/</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>7 September 2020</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3599,23 +3246,17 @@
           <t>DC pensions: Can private equity remain ‘private’?</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3 September 2020</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3 September 2020</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/dc-pensions-can-private-equity-remain-private/</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>3 September 2020</t>
-        </is>
-      </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3636,23 +3277,17 @@
           <t>Silver Lake veteran seeks $700m for third software-focused fund</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3 September 2020</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3 September 2020</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/silver-lake-veteran-seeks-700m-for-third-software-focused-fund/</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>3 September 2020</t>
-        </is>
-      </c>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3669,23 +3304,17 @@
           <t>ArchiMed sets sights on US with its largest healthcare fund</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2 September 2020</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2 September 2020</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/archimed-sets-sights-on-us-with-its-largest-healthcare-fund/</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>2 September 2020</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3702,23 +3331,17 @@
           <t>Ex-Carlyle Ireland execs beat crisis, lockdowns to hold first close</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25 August 2020</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>25 August 2020</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/ex-carlyle-ireland-execs-beat-crisis-lockdowns-to-hold-first-close/</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>25 August 2020</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3739,23 +3362,17 @@
           <t>How private equity is redefining resiliency by incorporating purpose</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24 August 2020</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>24 August 2020</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/how-private-equity-is-redefining-resiliency-by-incorporating-purpose/</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>24 August 2020</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3776,23 +3393,17 @@
           <t>HSBC collects $260m for second ‘Vision’ FoF</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20 August 2020</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>20 August 2020</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/hsbc-collects-260m-for-second-vision-fof/</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>20 August 2020</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3809,23 +3420,17 @@
           <t>Why your next LP could come via iCapital’s platform</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>18 August 2020</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>18 August 2020</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/why-your-next-lp-could-come-via-icapitals-platform/</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>18 August 2020</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3842,23 +3447,17 @@
           <t>Nordic Capital beats €5bn target on Fund X first close</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>18 August 2020</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>18 August 2020</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
           <t>https://www.privateequityinternational.com/nordic-capital-beats-e5bn-target-on-fund-x-first-close/</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>18 August 2020</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3879,21 +3478,19 @@
           <t>Paladin Capital hires CEO of UK’s national cybersecurity centre</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/18/289828/paladin-capital-hires-ceo-uks-national-cybersecurity-centre</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/18/289828/paladin-capital-hires-ceo-uks-national-cybersecurity-centre</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>Paladin Capital is at the vanguard of cybersecurity investing, having invested in close to 50 cyber and advanced technology companies, including Digital Shadows and Secure Code Warrior. It regards itself as a multi-stage investor and focuses on backing early stage companies that are developing products and services that defend, monitor and secure our shared critical, digital infrastructure. Commenting on Ciaran’s appointment, Michael Steed, Founder and Managing Partner, Paladin Capital, said: “Ciaran Martin is an exceptional talent in the cyber sphere and we’re profoundly pleased to have him join the Paladin team. His understanding of the ever-evolving threat landscape and knowledge of the technologies required to meet those challenges will help us assess potential investments and support our portfolio companies in their growth. “At Paladin we focus on companies that have a “dual lens”, that is, they provide services to government and commercial customers. Ciaran’s experience working across the public and private sectors to develop cyber solutions will be invaluable for the companies we back.” Speaking with   over email, Mike Steed added that Ciaran’s appointment underscored Paladin’s investment strategy of “broadening and sustaining our information advantage that drives our global cyber investing”.  “To be a good cyber investor focusing on digital resilience of our critical infrastructure, you must have global leaders helping to form the themes and thesis that will identify the answers to the solutions need to protect and defend our society. Ciaran Martin is just such a global leader,” he added. Ciaran will be based in Paladin’s European headquarters in the UK and will help grow Paladin’s presence in Europe’s cybersecurity early stage market. He will also be part of Paladin’s global Strategic Advisory Board, advising the company on threats, trends, risks and opportunities in cybersecurity for businesses and governments. This important role is in addition to Ciaran’s position as Professor of Practice at the Blavatnik School of Government at the University of Oxford. “I am delighted to be working with the Paladin team,” said Martin. “I learned in Government that whether it’s in the UK, Europe, the US or globally, the common cyber threats we face can only be solved if there is a strong, innovative private sector taking care of huge swathes of the problem. That presents enormous economic opportunities for talented technologists and entrepreneurs and I’m looking forward to being part of a venture capital team helping them to succeed."</t>
         </is>
       </c>
     </row>
@@ -3903,34 +3500,28 @@
           <t>Private Equity Wire</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>invest, capital</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Questa Capital closes USD348m Fund II to invest in transformational healthcare companies</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+          <t>Stemson Therapeutics Secures GBP6m in seed financing</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/17/289775/stemson-therapeutics-secures-gbp6m-seed-financing</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/18/289822/questa-capital-closes-usd348m-fund-ii-invest-transformational-healthcare</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>Stemson aims to restore human hair growth with a novel approach using the patient’s own cells to generate new hair follicles. Allergan Aesthetics is a world leading medical aesthetics company. Fortunis Capital, a London-based venture capital firm is committed to continuing support of Stemson’s regenerative cell therapy to treat hair loss. Fortunis Capital’s new Impact Fund intends to invest in companies, such as Stemson, which offer significant social or environmental benefit.  “Stemson’s novel cell therapy approach to treat hair loss has game-changing potential. Their experienced management team is poised to elevate its proprietary regenerative cell therapy method as it begins the next phase of its preclinical programme,” says Sir Andrew Ross, Director of Investments at Fortunis Capital. “Fortunis Capital is committed to supporting companies that are creating innovative solutions with worldwide social or environmental benefit and we believe that Stemson has the team, technology and the tools in place to develop a therapy capable of solving the hair loss problem for millions of people in need.” The seed funding supports the preclinical development of Stemson’s Induced Pluripotent Stem Cell (iPSC) based technology which is capable of producing the cell types required to initiate hair follicle growth.  Globally, hundreds of millions of men and women suffer from various forms of hair loss, and no solution today is capable of generating a new supply of follicles for patients in need.   “Allergan Aesthetics’ research and development efforts are focused on products and technologies that drive the advancement of aesthetics medicine. Hair loss is a significant unmet medical need for millions of men and women, and Stemson Therapeutics’ efforts to develop novel methods to regrow hair is an opportunity to make a difference in this area,” says Yehia Hashad, MD Senior Vice President, Research and Development, Allergan Aesthetics. The initial seed financing allows Stemson to expand its management team and R&amp;D resources, while recent approval of a foundational patent provides stability surrounding the Company’s efforts to develop its radical solution for hair growth.  The additions of Meghan Samberg, PhD as Vice President of R&amp;D and Preclinical Development and Cenk Sumen, PhD as Chief Technology Officer complement the work of Stemson’s cofounder and Chief Scientific Officer, Dr Alexey Terskikh and the R&amp;D team. Stemson received approval in the United States of its cornerstone Human Induced Pluripotent Stem Cell (iPSC) method patent licensed exclusively from the Sanford Burnham Prebys Medical Discovery Institute. The patent covers a novel process developed by Dr Terskikh to differentiate iPSC into dermal papilla cells, the cell type primarily responsible for controlling hair follicle generation and hair cycling. The patent secures foundational methods using iPSC cell therapy to grow hair. “Stemson has established the biological and technical building blocks which are needed to solve the problem of hair loss. A truly curative solution is now feasible, and we have built a world class team to deliver a therapy for the millions of hair loss sufferers across the world,” says Geoff Hamilton, cofounder and chief executive officer of Stemson Therapeutics. “We are grateful for support from Allergan Aesthetics and Fortunis Capital, and we look forward to expanding our base of investors as we move toward our first human clinical trial.”</t>
         </is>
       </c>
     </row>
@@ -3953,21 +3544,20 @@
           <t>Stirling Square Capital Partners' fourth fund teams with TA Associates to invest in Docu Nordic</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/18/289814/stirling-square-capital-partners-fourth-fund-teams-ta-associates-invest-docu</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/18/289814/stirling-square-capital-partners-fourth-fund-teams-ta-associates-invest-docu</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t xml:space="preserve">TA Associates will acquire a significant minority stake in the Company from Stirling Square’s Third Fund alongside Stirling Square’s Fourth Fund, which becomes the majority shareholder in DOCU Nordic. Headquartered in Ljusdal, Sweden, DOCU Nordic is the leading provider of business intelligence and data analytics services within the construction, real estate and healthcare markets in Scandinavia, Central Europe and Iberia. During Stirling Square’s Third Fund’s ownership, DOCU Nordic substantially developed its product offerings and capabilities while expanding its geographic reach. The Company recently announced the acquisition of Vortal in Portugal, which will add strategic e-tendering capabilities and a presence in Iberia. The new investment is the latest step in DOCU Nordic’s aim to create the leading construction technology and construction management eco-system in Europe, with significant opportunity for future buy-and-build activity. Henrik Lif, Partner of Stirling Square, says: “We believe that DOCU Nordic is an outstanding business that provides business critical and high-value services to a broad customer base. We are delighted to continue our investment journey with the Company in partnership with TA Associates. DOCU Nordic has demonstrated industry leading innovation in the construction, real estate and healthcare sectors. With the recent acquisition of Vortal in Portugal, the Company takes a further step geographically with the leading public e-tendering platform in Southern Europe. We look forward to continuing our work with senior management on organic growth and buy-and-build opportunities across Europe.” Naveen Wadhera, Managing Director of TA Associates, says: “Given our focus on partnering with market leading, profitable and growing businesses, DOCU Nordic offers a compelling investment opportunity for TA. We see particular opportunity to help accelerate the Company’s growth and to expand both product offerings and geographic reach through accretive acquisitions. We are excited to partner with Stirling Square and DOCU Nordic’s management team to help build additional value for the Company.” Stefan Lindqvist, CEO of DOCU Nordic, adds: “We are delighted to have the opportunity to further build on the past three years of partnership with Stirling Square, and we welcome TA Associates, an experienced global investor in the technology sector, as a new partner. We look forward to working closely with both owners as we open a new chapter in DOCU Nordic’s success story.” Henrik Lif, Ben Hopper Raphael Mukomilow of Stirling Square and Naveen Wadhera and Max Cancre of TA Associates will serve on the DOCU Nordic Board of Directors. 
+ </t>
         </is>
       </c>
     </row>
@@ -3977,30 +3567,32 @@
           <t>Private Equity Wire</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>invest, capital</t>
+        </is>
+      </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>How has the ‘Amazon effect’ changed tech-adoption in supply chains?</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+          <t>Questa Capital closes USD348m Fund II to invest in transformational healthcare companies</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/18/289822/questa-capital-closes-usd348m-fund-ii-invest-transformational-healthcare</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/17/289787/how-has-amazon-effect-changed-tech-adoption-supply-chains</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The firm's second fund will invest selectively in later stage companies in healthcare services, technology and medical devices with significant growth potential. The firm has a proven team with a collective 70 years of experience investing in and building growth stage companies.   The Fund was oversubscribed at its hard cap, securing commitments from a diversified blue-chip investor base comprised of leading endowments, foundations, family offices, consultants, pension plans and fund-of-funds. Questa Founder and Managing Partner Ryan Drant says: "Despite the challenges of COVID-19 we have been honoured with the investor response for our second fund, which exceeded our expectations. We are both grateful for the strong interest and additional investment from our existing investors, and pleased to be starting long-term relationships with a small group of exceptional new limited partners. We look forward to continuing to build differentiated and high-growth healthcare companies in close collaboration with strong management teams. Questa will continue to partner with companies that share our vision and passion to improve clinical outcomes, efficiency, safety, and the patient experience to help address critical challenges in our healthcare system." Questa Capital is an active and collaborative partner for the companies in which it invests. The Questa team brings deep sector expertise in healthcare services, technology and medical devices, and a deep network and industry experience to help guide portfolio companies toward leading market positions and accelerated growth. Current and exited companies within the Questa portfolio include Dispatch Health, EPIX Therapeutics (acquired by Medtronic in early 2019), and Medrio among others. Questa closed its inaugural fund in 2018 with USD199 million of capital commitments. "The year 2020 has offered a challenging and unique set of perspectives concerning the changing US healthcare landscape. As DispatchHealth continues to grow, Questa Capital has been an exceptional partner for our company during these times as we continue to expand our team and execute on our market expansion," says Mark Prather MD, MBA, CEO and co-founder of DispatchHealth. "We are thrilled for their success in raising Fund II and look forward to their and our continued achievements, working together." Acalyx Advisors served as exclusive placement agent and Gunderson Dettmer provided legal counsel to Questa.</t>
         </is>
       </c>
     </row>
@@ -4010,34 +3602,28 @@
           <t>Private Equity Wire</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>capital</t>
-        </is>
-      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>GCV secures GBP1m in growth capital</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
+          <t>How has the ‘Amazon effect’ changed tech-adoption in supply chains?</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/17/289787/how-has-amazon-effect-changed-tech-adoption-supply-chains</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/17/289776/gcv-secures-gbp1m-growth-capital</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>“The Amazon effect has changed consumer needs of wanting products delivered in a day or two versus what five years ago would be a week,” commented Dolan. Other catalysts include supply chain and delivery mechanisms across industries requiring real time speed and visibility, location tracking, digitisation and minimum human to human interaction requirements during the current Covid-19 crisis. During these unprecedented times, software and technology have enabled supply chains to reroute services from concentrated verticals such as hospitality and hotels to hospitals and pharmaceuticals. Dolan also emphasises the fact that supply chains of the transportation industry will witness a changing capex environment accompanied by tighter margins in the future. There will also be an increased focus on optimising efficiency and maintenance of existing capex inventory using software and technology, rather than purchasing a replacement. This is significant due to the “ripple effect” which leverages the high interconnectedness of mobility in supply chains, as, in Dolan's view,  a delay or breakdown in one segment of the supply chain would have a multi-field impact across the business. He also believes that investors in the transportation industry seem to benefit from a 'flight to quality’ trend as they are currently witnessing good underlying trends. However, they are likely to operate from a level of familiarity when it comes to deal prospecting and transaction management, as it is difficult to forge new relationships during the current home-working environment. Overall, Dolan is cautiously optimistic about the future, saying: “The pandemic will have a positive effect on the industry as it will improve and increase technology to solve many complexities.”</t>
         </is>
       </c>
     </row>
@@ -4053,24 +3639,29 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Stemson Therapeutics Secures GBP6m in seed financing</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>Blackstone invests alongside Fairfax in USD500m Ki launch</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/17/289773/blackstone-invests-alongside-fairfax-usd500m-ki-launch</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/17/289775/stemson-therapeutics-secures-gbp6m-seed-financing</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t xml:space="preserve">The capital commitment will fund Ki’s expansion as it launches in Q4 2020, enabling the business to grow rapidly to significant scale.   
+Ki is a newly formed follow-only digital business which will write its’ first risk incepting in January 2021. It will underwrite using an algorithm-driven approach and offer instant follow capacity through its proprietary digital platform. Ki will write a broad range of specialty business following selected leaders in the Lloyd’s market, including Brit. 
+Qasim Abbas, Senior Managing Director at Blackstone, says: “Matthew, Mark and the rest of the Ki team have created a unique opportunity in Lloyd’s to revolutionise the market and we are excited to be a part of this, in partnership with Fairfax. Ki’s first-of-its-kind digital model will deliver a unique advantage to its’ business partners which we believe will enable it to build to significant scale, while its algorithmically-driven approach represents an important evolution in the portfolio management of specialty risks.” 
+Burkhard Keese, CFO at Lloyd’s of London, says: “We are delighted to see Blackstone entering Lloyd’s at this key moment in our modernisation, illustrating the appeal of our market.  Ki is fully aligned to the Lloyd’s Blueprint, driving the adoption of new technology to deliver a more competitive market, and we wish the team success as it launches later this year.” 
+Matthew Wilson, CEO of Brit and Chairman of Ki, says: “Our Partnership with Fairfax and Blackstone on the launch of Ki will allow the business to reach its full potential with significant committed capital.  Blackstone has a phenomenal track record and is entering the Lloyd’s market at a pivotal moment, with increased acceptance of digital models and a flight to quality.” 
+Mark Allan, CEO of Ki and Group CFO of Brit, says: “Securing support from Blackstone, one of the world’s leading investment firms, is a significant statement of confidence in Ki and the vision we have set out. Blackstone’s commitment to Ki completes our world-class group of partners with Fairfax, Brit, Google Cloud and UCL already supporting the business.  With our investors, we have the financial firepower to rapidly scale the business and support our plan to provide a truly differentiated offering to brokers and clients.” 
+The creation of Ki was first announced in May 2020. Ki will aim to significantly reduce the amount of time taken for brokers to place their follow capacity. Ki’s algorithm, developed with support from University College London, will evaluate Lloyd’s policies and automatically quote for business through an always available digital platform, built by Google Cloud and accessed directly by brokers. 
+ </t>
         </is>
       </c>
     </row>
@@ -4089,21 +3680,19 @@
           <t>EFG Hermes' Vortex Energy sells controlling stake in 365MW UK solar portfolio to TNB valuing the portfolio at cGBP500m</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/17/289774/efg-hermes-vortex-energy-sells-controlling-stake-365mw-uk-solar-portfolio-tnb</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/17/289774/efg-hermes-vortex-energy-sells-controlling-stake-365mw-uk-solar-portfolio-tnb</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The stake was sold to TNB International Sdn Bhd, a wholly owned subsidiary of Tenaga Nasional Berhad (TNB), an existing shareholder in the business and one of South East Asia’s largest utilities with an installed capacity of c15GWs globally. Vortex III is one of the largest standalone portfolios in the UK, with an average asset age of 6 years, PPAs with major European energy companies and utilities, an attractive ROC regime and a long-term debt package from major lenders including Santander, RBS and ING. The portfolio achieved an EBITDA of cGBP39 million in 2019 with an 84 per cent EBITDA margin, exceeding its budget and providing attractive cash yields to its shareholders. It continues to meet its targets in 2020, despite the global challenges. Karim Moussa, Head of Private Equity and Asset Management, at EFG Hermes says: “This is a major milestone for Vortex. The exit of Vortex III delivered a 1.5x cash on cash multiple to our investors and an IRR of c14 per cent. We continue to demonstrate our ability to pursue the full cycle of raising capital, investing strategically and exiting major renewable energy portfolios. Since launching Vortex in 2015, we have combined net 822MW of premium assets while investing more than EUR1.3 billion in the sector in developed markets. We have been consistently delivering attractive returns to our shareholders and partners by aggregating and enhancing assets and then selling portfolios to strategic long-term owners of renewable energy assets. This is the second major exit following the disposal of our 49 per cent stake in a 1GW wind portfolio to funds managed by JP Morgan last year.” Bakr Abdel-Wahab, Head of Energy, at EFG Hermes Private Equity, says: “This transaction demonstrates Beaufort’s skills as a leading investment and asset manager of large scale portfolios and businesses. Since acquiring the UK assets, we have improved their performance and capital structure via a major refinancing; revamping all key portfolio agreements, partnering with Lightsource BP and establishing a strong London based asset management team. This active management strategy has generally enabled us to return to our investor across our three Vortex Energy platforms since inception, an average net annual cash yield of 5 per cent, cash-on-cash multiple of 1.4x and IRR of 13 per cent. We look forward to continue growing Vortex Energy’s footprint and investing in energy transition businesses and portfolios globally over the coming period.” The Beaufort team is currently planning to establish Vortex IV, a renewable energy platform that will target global generation, storage, distribution and technology businesses.  Moussa says: “We are excited about future global opportunities in renewables and the wider clean energy space, we shall aim to commence our fundraising efforts by the end of 2020, with anchor investors already showing increased interest in our next endeavor Vortex IV .”</t>
         </is>
       </c>
     </row>
@@ -4113,30 +3702,35 @@
           <t>Private Equity Wire</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>capital</t>
+        </is>
+      </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Blackstone invests alongside Fairfax in USD500m Ki launch</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>Kbox Global secures GBP12m from Balderton Capital</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/17/289772/kbox-global-secures-gbp12m-balderton-capital</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/17/289773/blackstone-invests-alongside-fairfax-usd500m-ki-launch</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The Kbox model revisits the traditional economics of food delivery by utilising capacity in existing commercial kitchens. Kbox’s technology and menu portfolio mean kitchen owners, from pubs, hotels and restaurants to supermarkets, can establish an agile new revenue stream, that reflects the demographics and taste trends of their area, within days, for no upfront fee, and no additional investment in bricks and mortar. The company has seen exponential growth in the last quarter since it secured seed funding of GBP5 million from Hoxton Ventures earlier this year. With kitchens in London, Manchester, Liverpool, Glasgow, Edinburgh, and Brighton, Kbox is on course for 2000 operational kitchens in the UK before the end of 2021. An international rollout of the model is also underway with franchise agreements in Australia and India already signed and launching this month with a further eight countries to be launched next year. 
+The food delivery market has grown 40 per cent in five years in the UK and shows no sign of slowing down in the wake of the pandemic. 
+The Balderton investment will be used to accelerate Kbox’s UK growth plans as well as support planned international expansion and the establishment of a US base early next year. Salima Vellani, Kbox founder and serial restaurateur, armed with a track record of expanding concepts across international markets and having foreseen the rise of the delivery-first era, is now seizing on it for the benefit of the whole hospitality ecosystem. 
+Salima Vellani, Kbox founder and CEO, says: “These are challenging times for anyone working in hospitality and income diversification is a powerful tool to boost revenues. I’m thrilled that venues from pubs, restaurants and hotels to casinos and supermarkets are embracing the delivery first era, by firing up their kitchens with Kbox. “To have Balderton’s backing means we can respond to the global demand for a shakeup of the old economics, for the benefit of food providers, commercial kitchen owners and consumers.” Daniel Waterhouse, Partner at Balderton Capital, adds: “Salima and the team have joined the dots between rapidly increasing consumer demand for delivery meals, ever-changing food preferences and under-utilised kitchen assets in a challenged hospitality sector. They have melded software and data science into a next-generation franchising model that can be deployed quickly to thousands of kitchens around the world. We are delighted to be joining them on this journey.”</t>
         </is>
       </c>
     </row>
@@ -4156,24 +3750,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Kbox Global secures GBP12m from Balderton Capital</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>Antares Capital holds final close of inaugural senior loan fund</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/17/289771/antares-capital-holds-final-close-inaugural-senior-loan-fund</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/17/289772/kbox-global-secures-gbp12m-balderton-capital</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t>The fund, which launched in December 2019, closed on 14 September with approximately USD3 billion of asset purchasing power, exceeding its initial target of USD1.5 billion. Capital was raised across a diversified set of institutional investors. The investment objective of the SLF is to build a diverse portfolio of sponsor-backed senior secured loans to US and Canadian borrowers. Investors in the fund are primarily public and private pensions, insurance companies, asset managers and banks located predominantly in the US, Canada, Asia and the Middle East. “The closing of our inaugural fund is a significant milestone in continuing to diversify our investor base, and the ability to do so during the current market environment is a clear testament to the strength of the Antares brand,” says Vivek Mathew, senior managing director and head of asset management. “Investors appreciate that Antares’ market position allows us to be highly selective in the opportunities in which we invest. Also, Antares has implemented a variety of measures to demonstrate alignment of interests with our investors, and ultimately when markets turn, we have a track record of strong performance through market cycles.” “Covid-19 has been a stress test for our asset class, and while the story is not fully written yet, it appears that middle market private debt will perform well,” says David Brackett, CEO of Antares. “As a result, we anticipate further growth in our asset management platform. As a firm we recently recognised the five-year anniversary of our partnership with CPPIB Credit Investments Inc. During this time we are proud to have continued to build upon our industry-leading platform targeting private equity-owned middle market companies.” Antares Capital Advisers was advised by a team from Ropes &amp; Gray led by asset management partner Peter Laybourn.</t>
         </is>
       </c>
     </row>
@@ -4193,24 +3785,23 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Antares Capital holds final close of inaugural senior loan fund</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>GCV secures GBP1m in growth capital</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
+          <t>https://www.privateequitywire.co.uk/2020/09/17/289776/gcv-secures-gbp1m-growth-capital</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://www.privateequitywire.co.uk/2020/09/17/289771/antares-capital-holds-final-close-inaugural-senior-loan-fund</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
+          <t xml:space="preserve">GCV has now opened up the investment round to new private investors via its online investment platform - growthfunders.com Investment from the current round will enable GCV to support 30 high-growth start-ups and create hundreds of new tech jobs within the North East through its venture builder unit, G-Labs. It will also enable GCV to increase internal headcount from 22 to 40 in the next 12-24 months. The funding announcement comes as Britain looks to the tech industry to kick-start a post-COVID economic recovery, after UK GDP fell by a record 20.4% in the three months to June 2020. Investments in the UK tech sector soared to a record GBP10.1 billion (USD13.2 billion) in 2019, according to trade body Tech Nation – a GBP3.1 billion increase on 2018 figures – and the industry is widely regarded as a key driver of future job creation and economic growth.   GCV is very much immersed in this important sector, having facilitated GBP45 million of investment in high-growth tech businesses – including digital lenders Atom Bank and B-North, and employee engagement platform Hive HR – and the creation of more than 600 new jobs in the past five years.  Craig Peterson, co-founder and chief operating officer at GCV, says: “Over the past five years we have been on a mission to support entrepreneurs and innovators to build and launch high-growth businesses that transform industries. “The fundraise will not only increase our capacity with further quality hires and expand our venture builder arm but in turn will enable the creation and scaling of the UK’s next wave of innovative tech start-ups. “As consumers and businesses are relying more on technology as a result of Covid-19, we feel this investment comes at the right time to combine capital and intensive support to build better, more sustainable businesses.” GCV has evolved rapidly since its inception in 2015. The company started life predominantly as a fintech company, developing and operating online investment platforms focused on alternative investments. Formally launching their first platform GrowthFunders.com in 2015, the company has since built an extensive private investor network across the North of England.  The network has backed high-profile businesses including UK challenger banks B-North and Atom Bank, as well as high-growth tech start-ups such as employee engagement platform Hive.HR and global intelligence and risk management provider, Intelligence Fusion. These businesses are using technology to transform their respective industries and between them have already created more than 600 jobs across the North East of England. GCV operates across three core business units – a private investor network, a specialist fintech software division and an innovation lab – all working together to drive growth, create value and deliver impact. The private investor network, G-Ventures,  brings together an online and offline investor network of experienced private investors and institutional investors to co-invest in growth-focussed investment opportunities. Providing investment opportunities across three core asset classes of venture capital, property and private equity, tax-efficient structures are utilised where possible including the Enterprise Investment Scheme (EIS) and Seed Enterprise Investment Scheme (SEIS) to take advantage of generous tax reliefs. GCV originates, structures, distributes and monitors these investments through its online co-investment and reporting platforms, which have been developed by the fintech software development division of the business (Quva).  GCV’s innovation and venture builder unit, G-Labs, invests capital, knowledge, experience, ideas and infrastructure to help tech entrepreneurs incubate business opportunities in high-growth sectors. Taking their ideas from concept to launch, scale, maturity and exit, this approach also provides the G-Ventures Investor Network with access to well structured, high-quality investment opportunities where investors and founders interests are fully aligned. The latest addition to the GCV business divisions is fintech software, Quva.  Quva designs, builds and operates online investment and reporting platforms aimed at streamlining the overall investment process and providing an end-to-end solution for investment managers and investor clients.  As a platform-as-a-service solution for investment firms and asset managers in the alternative investment sector, Quva has the potential to carve out a niche within this sector and create significant enterprise value as a standalone business unit. Peterson says: “Through our three business divisions we’ve developed a powerful approach to creating, launching and scaling high-growth businesses. We have the capability to support the start-up and expansion of several ventures that have the capacity to add real value to the UK’s tech industry. This sector will be vitally important to the UK as the economy tries to recover from the devastating impact of the coronavirus. “Our aim now is to invest in and support exciting new projects that can build, launch and scale businesses, creating much-needed jobs at a time when employment is falling due to Covid-19.” 
+ </t>
         </is>
       </c>
     </row>
@@ -4229,23 +3820,17 @@
           <t>Montana adds Japan Post, CVC grandees to board</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/montana-adds-japan-post-cvc-grandees-to-board/</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4266,23 +3851,17 @@
           <t>Tikehau names date for debt secondaries fundraise</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/tikehau-names-date-for-debt-secondaries-fundraise/</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4299,23 +3878,17 @@
           <t>Oregon pension shops $1.5bn portfolio of PE stakes</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/oregon-pension-shops-1-5bn-portfolio-of-pe-stakes/</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4336,23 +3909,17 @@
           <t>Guggenheim taps Houlihan secondaries head for advisory team</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/guggenheim-taps-houlihan-secondaries-head-for-advisory-team/</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4373,23 +3940,17 @@
           <t>Tikehau names date for debt secondaries fundraise</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/tikehau-names-date-for-debt-secondaries-fundraise/</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4410,23 +3971,17 @@
           <t>Hunger for secondaries capital strong post-Ardian, Lexington closes</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/hunger-for-secondaries-capital-strong-post-ardian-lexington-closes/</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>2020-09-07</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4443,23 +3998,17 @@
           <t>SI 30: Ready to switch on</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/si-30-ready-to-switch-on/</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>2020-09-01</t>
-        </is>
-      </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4476,23 +4025,17 @@
           <t>Spring Bridge uses secondaries capital to back LaSalle spin-out</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/spring-bridge-uses-secondaries-capital-to-back-lasalle-spin-out/</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>2020-08-28</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4509,23 +4052,17 @@
           <t>Arcis Group receives commitment from Houston Firefighters’</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/arcis-group-receives-commitment-from-houston-firefighters/</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2020-08-25</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4546,23 +4083,17 @@
           <t>HSBC collects $260m for second ‘Vision’ FoF</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/hsbc-collects-260m-for-second-vision-fof/</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
-      </c>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4583,23 +4114,17 @@
           <t>Stafford Capital holds infra first close</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2020-08-19</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/stafford-capital-holds-infra-first-close/</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>2020-08-19</t>
-        </is>
-      </c>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4620,23 +4145,17 @@
           <t>Real estate secondaries in the time of covid-19: Down but not out</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2020-08-19</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/real-estate-secondaries-in-the-time-of-covid-19-down-and-not-out/</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>2020-08-19</t>
-        </is>
-      </c>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4653,23 +4172,17 @@
           <t>Top Tier nears target on third secondaries fund</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2020-08-18</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/top-tier-nears-target-on-third-secondaries-fund/</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>2020-08-18</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4690,23 +4203,17 @@
           <t>Pantheon holds final close on its biggest PE secondaries programme</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
           <t>https://www.secondariesinvestor.com/pantheon-holds-final-close-on-its-biggest-pe-secondaries-programme/</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>2020-08-17</t>
-        </is>
-      </c>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4723,23 +4230,17 @@
           <t>Ardian Expansion V closes on €2bn</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
           <t>/france/official-record/3021045/ardian-expansion-v-closes-on-eur2bn</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>2020-09-16</t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4756,23 +4257,17 @@
           <t>Anima Alternative launches €200m direct lending fund</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
           <t>/southern-europe/official-record/3021046/anima-alternative-launches-eur200m-direct-lending-fund</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>2020-09-16</t>
-        </is>
-      </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4793,23 +4288,17 @@
           <t>Clean Growth Fund to close in 2021 on £150m hard-cap</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
           <t>/uk/news/3021040/clean-growth-fund-to-close-in-2021-on-gbp150m-hard-cap</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>2020-09-16</t>
-        </is>
-      </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4826,23 +4315,17 @@
           <t>Talde launches €150m fund</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
           <t>/southern-europe/official-record/3021029/talde-launches-eur150m-fund</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>2020-09-15</t>
-        </is>
-      </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4859,23 +4342,17 @@
           <t>Equita Private Debt II holds €100m first close</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
           <t>/southern-europe/official-record/3021012/equita-private-debt-ii-holds-eur100m-first-close</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4896,23 +4373,17 @@
           <t>Sagard NewGen holds first close for €300m first fund</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
           <t>/france/official-record/3021011/sagard-newgen-holds-first-close-for-eur300m-first-fund</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4929,23 +4400,17 @@
           <t>HIG European Capital Partners III sets target on €1bn</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
           <t>/southern-europe/official-record/3020995/hig-european-capital-partners-iii-sets-target-on-eur1bn</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4966,23 +4431,17 @@
           <t>Yotta holds first close on €101m for Smart Industry Fund</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
           <t>/france/official-record/3020994/yotta-holds-first-close-on-eur101m-for-smart-industry-fund</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4999,23 +4458,17 @@
           <t>Secondary market update: coming out of hibernation</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
           <t>/unquote/analysis/3020938/secondary-market-update-coming-out-of-hibernation</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5032,23 +4485,17 @@
           <t>Anthemis venture fund to hold final close before H2 2021</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2020-09-10</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
           <t>/uk/news/3020975/anthemis-venture-fund-to-hold-final-close-before-h2-2021</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>2020-09-10</t>
-        </is>
-      </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5069,23 +4516,17 @@
           <t>J&amp;T eyeing CZK 1bn initial close for J&amp;T Investments fund</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2020-09-10</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
           <t>/cee/news/3020967/j-t-eyeing-czk-1bn-initial-close-for-j-t-investments-fund</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>2020-09-10</t>
-        </is>
-      </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5102,23 +4543,17 @@
           <t>Dawn closes fourth fund on $400m hard-cap</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
           <t>/uk/official-record/3020946/dawn-closes-fourth-fund-on-usd400m-hard-cap</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>2020-09-09</t>
-        </is>
-      </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5135,23 +4570,17 @@
           <t>Bridgepoint Development Capital IV hits £1.5bn hard-cap</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
           <t>/unquote/official-record/3020937/bridgepoint-development-capital-iv-hits-gbp15bn-hard-cap</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>2020-09-08</t>
-        </is>
-      </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5168,23 +4597,17 @@
           <t>Superhero Capital to hold €40m final close by end of 2020</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
           <t>/nordics/official-record/3020935/superhero-capital-to-hold-eur40m-final-close-by-end-of-2020</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>2020-09-08</t>
-        </is>
-      </c>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5201,23 +4624,17 @@
           <t>DPE Deutschland IV holds final close on €1bn</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
           <t>/dach/official-record/3020932/dpe-deutschland-iv-holds-final-close-on-eur1bn</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>2020-09-08</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5238,23 +4655,17 @@
           <t>FIEE holds €127.5m first close for second fund</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
           <t>/southern-europe/official-record/3020915/fiee-holds-eur1275m-first-close-for-second-fund</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>2020-09-07</t>
-        </is>
-      </c>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5271,23 +4682,17 @@
           <t>British Business Investments commits €75m to Isomer II</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
           <t>/uk/news/3020895/british-business-investments-commits-eur75m-to-isomer-ii</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>2020-09-04</t>
-        </is>
-      </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5304,23 +4709,17 @@
           <t>Muzinich Pan-European Private Debt II holds €210m first close</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
           <t>/unquote/official-record/3020876/muzinich-pan-european-private-debt-ii-holds-eur210m-first-close</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>2020-09-03</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5341,23 +4740,17 @@
           <t>Access holds first close for co-investment fund on €300m</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
           <t>/uk/official-record/3020871/access-holds-a-first-close-for-co-investment-fund-on-eur300m</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>2020-09-03</t>
-        </is>
-      </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5374,23 +4767,17 @@
           <t>Claris Biotech I holds €30m first closing</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
           <t>/southern-europe/official-record/3020858/claris-biotech-i-holds-eur30m-first-closing</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>2020-09-02</t>
-        </is>
-      </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5411,23 +4798,17 @@
           <t>SwanCap holds final close for Swan IV</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
           <t>/dach/official-record/3020857/swancap-holds-final-close-for-swan-iv</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>2020-09-02</t>
-        </is>
-      </c>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5448,23 +4829,17 @@
           <t>Beechbrook to close Ireland Fund in Q4, credit fund in 2021</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
           <t>/uk/news/3020856/beechbrook-to-close-ireland-fund-in-q4-credit-fund-in-2021</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>2020-09-02</t>
-        </is>
-      </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5485,23 +4860,17 @@
           <t>Munich Private Equity Partners launches fundraising for MPEP IV</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
           <t>/dach/official-record/3020841/munich-private-equity-partners-launches-fundraising-for-mpep-iv</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>2020-09-01</t>
-        </is>
-      </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5518,23 +4887,17 @@
           <t>ArchiMed closes MED Platform I on €1bn</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
           <t>/unquote/official-record/3020816/archimed-closes-med-platform-i-on-eur1bn</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>2020-08-28</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5555,23 +4918,17 @@
           <t>A peek into IFC’s returns as it looks to trim stake in Angel Broking via IPO</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1 Day ago</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>9 Hours ago</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/a-peek-into-ifc-s-returns-as-it-looks-to-trim-stake-in-angel-broking-via-ipo</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>9 Hours ago</t>
-        </is>
-      </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5592,23 +4949,17 @@
           <t>Carlyle weighs possible bid for south India bulk-drugs firm</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1 Day ago</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>10 Hours ago</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/carlyle-weighs-possible-bid-for-south-indian-bulk-drugs-maker</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>10 Hours ago</t>
-        </is>
-      </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5625,23 +4976,17 @@
           <t>Blackstone earns stellar returns in partial exit from Essel Propack</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1 Day ago</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>13 Hours ago</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/blackstone-earns-stellar-returns-in-quick-partial-exit-from-essel-propack</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>13 Hours ago</t>
-        </is>
-      </c>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5658,60 +5003,44 @@
           <t>New York-based Kora gets sharp haircut on exit from microfinance firm</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>3 Days ago</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/new-york-based-kora-gets-sharp-haircut-on-exit-from-microfinance-firm</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>VCCiRCLE : Private Equity</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+          <t>VCCiRCLE : Venture Capital</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>KKR raises over $11 bn for fourth Asia fund</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+          <t>Times Internet pours more money into exam-prep platform</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1 Day ago</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>3 Days ago</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/kkr-raises-over-11-bn-for-fourth-asia-fund</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>3 Days ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/times-internet-pours-more-money-into-exam-prep-platform</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5719,32 +5048,30 @@
           <t>VCCiRCLE : Private Equity</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Warburg Pincus to cut CAMS stake in pre-IPO deal as firm ups issue size</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
+          <t>KKR raises over $11 bn for fourth Asia fund</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>3 Days ago</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>3 Days ago</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/warburg-pincus-to-cut-cams-stake-in-pre-ipo-deal-as-firm-ups-issue-size</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>3 Days ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/kkr-raises-over-11-bn-for-fourth-asia-fund</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5758,26 +5085,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Sabre Partners expands new fund’s corpus after commitment from US limited partner</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+          <t>Warburg Pincus to cut CAMS stake in pre-IPO deal as firm ups issue size</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>4 Days ago</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>3 Days ago</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/sabre-partners-expands-new-fund-s-corpus-after-commitment-from-us-limited-partner</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>3 Days ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/warburg-pincus-to-cut-cams-stake-in-pre-ipo-deal-as-firm-ups-issue-size</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5791,31 +5112,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>PE firms put fresh capital into Burger King India ahead of delayed IPO</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>Sabre Partners expands new fund’s corpus after commitment from US limited partner</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>4 Days ago</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>4 Days ago</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/pe-firms-put-fresh-capital-into-burger-king-india-ahead-of-delayed-ipo</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>4 Days ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/sabre-partners-expands-new-fund-s-corpus-after-commitment-from-us-limited-partner</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VCCiRCLE : Private Equity</t>
+          <t>VCCiRCLE : Venture Capital</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -5824,68 +5139,52 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Warburg Pincus, Multiples PE bet more on multiplex operator PVR</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+          <t>Prime Venture Partners backs workforce management startup Zuper in ninth SaaS bet</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1 Day ago</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4 Days ago</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/warburg-pincus-multiples-pe-bet-more-on-multiplex-chain-operator-pvr</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>4 Days ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/prime-venture-partners-backs-workforce-management-startup-zuper-in-ninth-saas-bet</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>VCCiRCLE : Private Equity</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+          <t>VCCiRCLE : Venture Capital</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>How a PE firm acquired one share in an Indian company to allegedly oust a founder</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+          <t>Nexus-backed Observe.AI amasses $54 mn in Series B funding</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1 Day ago</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>7 Days ago</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/how-a-pe-firm-acquired-one-share-in-an-indian-company-to-allegedly-oust-a-founder</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>7 Days ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/nexus-backed-observe-ai-amasses-54-mn-in-series-b-funding</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>VCCiRCLE : Venture Capital</t>
+          <t>VCCiRCLE : Private Equity</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -5894,31 +5193,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Times Internet pours more money into exam-prep platform</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
+          <t>PE firms put fresh capital into Burger King India ahead of delayed IPO</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>5 Days ago</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>10 Hours ago</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/times-internet-pours-more-money-into-exam-prep-platform</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>10 Hours ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/pe-firms-put-fresh-capital-into-burger-king-india-ahead-of-delayed-ipo</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VCCiRCLE : Venture Capital</t>
+          <t>VCCiRCLE : Private Equity</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -5927,26 +5220,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Prime Venture Partners backs workforce management startup Zuper in ninth SaaS bet</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+          <t>Warburg Pincus, Multiples PE bet more on multiplex operator PVR</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>5 Days ago</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>13 Hours ago</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/prime-venture-partners-backs-workforce-management-startup-zuper-in-ninth-saas-bet</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>13 Hours ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/warburg-pincus-multiples-pe-bet-more-on-multiplex-chain-operator-pvr</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5954,32 +5241,30 @@
           <t>VCCiRCLE : Venture Capital</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Nexus-backed Observe.AI amasses $54 mn in Series B funding</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+          <t>Fourth Partner Energy taps European funds again for fresh capital</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2 Days ago</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>16 Hours ago</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/nexus-backed-observe-ai-amasses-54-mn-in-series-b-funding</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>16 Hours ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/fourth-partner-energy-taps-european-funds-again-for-fresh-capital</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5987,69 +5272,57 @@
           <t>VCCiRCLE : Venture Capital</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Fourth Partner Energy taps European funds again for fresh capital</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+          <t>Bejul Somaia, former Flipkart exec part of Lightspeed’s new Southeast Asia team</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2 Days ago</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1 Day ago</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/fourth-partner-energy-taps-european-funds-again-for-fresh-capital</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>1 Day ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/bejul-somaia-former-flipkart-exec-part-of-lightspeed-s-new-southeast-asia-team</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>VCCiRCLE : Venture Capital</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
+          <t>VCCiRCLE : Private Equity</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Bejul Somaia, former Flipkart exec part of Lightspeed’s new Southeast Asia team</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
+          <t>How a PE firm acquired one share in an Indian company to allegedly oust a founder</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>8 Days ago</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1 Day ago</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>https://www.vccircle.com/bejul-somaia-former-flipkart-exec-part-of-lightspeed-s-new-southeast-asia-team</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>1 Day ago</t>
-        </is>
-      </c>
+          <t>https://www.vccircle.com/how-a-pe-firm-acquired-one-share-in-an-indian-company-to-allegedly-oust-a-founder</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6066,23 +5339,17 @@
           <t>Architecture and design software firm Infurnia pulls in angel funding</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2 Days ago</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/interior-design-software-firm-infurnia-pulls-in-angel-funding</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6099,23 +5366,17 @@
           <t>Inflection Point Ventures piles into e-sports content platform AFK Gaming</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2 Days ago</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/inflection-point-ventures-piles-into-e-sports-content-platform-afk-gaming</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6132,23 +5393,17 @@
           <t>Podcast: Season Two Ventures CEO on finding startups at reasonable valuations</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2 Days ago</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/podcast-season-two-ventures-ceo-on-finding-startups-at-reasonable-valuations</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6169,23 +5424,17 @@
           <t>Milltrust International likely to increase India exposure for climate impact fund</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>3 Days ago</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/milltrust-international-likely-to-increase-india-exposure-for-climate-impact-fund</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>2 Days ago</t>
-        </is>
-      </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6206,23 +5455,17 @@
           <t>IAN Fund leads funding for agri-tech startup Farmers Freshzone</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>3 Days ago</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>3 Days ago</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
           <t>https://www.vccircle.com/ian-fund-leads-funding-for-agri-tech-startup-farmers-freshzone</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>3 Days ago</t>
-        </is>
-      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6243,23 +5486,17 @@
           <t>Carnrite Ventures targets $10m for maiden fund</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/carnrite-ventures-targets-10m-for-maiden-fund/</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6276,23 +5513,17 @@
           <t>Wix launches VC arm</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/wix-launches-vc-arm/</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6313,23 +5544,17 @@
           <t>DBL Partners targets over $516m for fourth fund</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/dbl-partners-targets-over-516m-for-fourth-fund/</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6350,23 +5575,17 @@
           <t>Flying Fish targets $75m for sophomore fund</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/flying-fish-targets-75m-for-sophomore-fund/</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>2020-09-16</t>
-        </is>
-      </c>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6387,23 +5606,17 @@
           <t>Arrowroot Capital collects over $102.2m for fourth fund</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/arrowroot-capital-collects-over-102-2m-for-fourth-fund/</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>2020-09-15</t>
-        </is>
-      </c>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6424,23 +5637,17 @@
           <t>Hetz Ventures rakes in $77m for sophomore fund</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/hetz-ventures-rakes-in-77m-for-sophomore-fund/</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>2020-09-15</t>
-        </is>
-      </c>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6457,23 +5664,17 @@
           <t>Winnow Fund gathers $6m to back Wisconsin startups</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/winnow-fund-gathers-6m-to-back-wisconsin-startups/</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6490,23 +5691,17 @@
           <t>Conductive Ventures wraps up second fund at $150m</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/conductive-ventures-wraps-up-second-fund-at-150m/</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6527,23 +5722,17 @@
           <t>Valor Ventures collects $136.35m for third fund</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/valor-ventures-collects-136-35m-for-third-fund/</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>2020-09-09</t>
-        </is>
-      </c>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6560,23 +5749,17 @@
           <t>DNX Ventures wraps up fund at $315m</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
           <t>https://www.venturecapitaljournal.com/dnx-ventures-wraps-up-fund-at-315m/</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>2020-09-08</t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6590,26 +5773,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>18th Century ‘Old House,’ Set on the River Thames, Lists in Oxfordshire, England</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
+          <t>2021 Best Colleges in America: Harvard Leads the Rankings</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>https://www.mansionglobal.com/articles/18th-century-old-house-set-on-the-river-thames-lists-in-oxfordshire-england-219635?mod=hp_minor_pos24</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/2021-best-colleges-in-america-harvard-leads-the-university-rankings-11600383996?mod=hp_featst_pos4</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6623,26 +5800,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2021 Best Colleges in America: Harvard Leads the Rankings</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
+          <t>Affordable Care Act in the Spotlight</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/2021-best-colleges-in-america-harvard-leads-the-university-rankings-11600383996?mod=hp_lead_pos11</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/justice-ruth-bader-ginsburgs-death-puts-spotlight-on-affordable-care-act-11600549424</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6656,26 +5827,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Bitter Court Nomination Fight Looms</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
+          <t>Alibaba, Tencent Kick the Tires on a New Idea—Keeping China’s Jalopies on the Road</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/justice-ginsburgs-death-creates-prospect-of-bitter-nomination-fight-11600476584</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/alibaba-and-tencent-kick-the-tires-on-a-new-ideakeeping-chinas-jalopies-on-the-road-11600513201?mod=hp_lead_pos6</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6693,26 +5858,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>BlackRock ETF Business Wins Big After Fed Taps It for Help</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
+          <t>Asking for a Raise During the Pandemic</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/fed-hires-blackrock-to-help-calm-markets-its-etf-business-wins-big-11600450267?mod=hp_lead_pos4</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/how-to-ask-for-a-raise-during-the-covid-pandemic-11600513200?mod=hp_lista_pos3</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6726,26 +5885,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CDC Reverses Relaxation of Covid-19 Testing Guidance</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
+          <t>At Nonprofits Focusing on Blacks, Donations Soared in Wake of George Floyd Protests</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/cdc-reverses-controversial-guidance-on-covid-19-testing-11600452908?mod=hp_lead_pos3</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/at-nonprofits-focusing-on-blacks-donations-soared-in-wake-of-george-floyd-protests-11600542001?mod=hp_lead_pos11</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6759,26 +5912,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>California Utilities Hope Drones, AI Will Lower Risk of Future Wildfires</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
+          <t>Balance and Speed Drills From an NHL Strength Guru</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/california-utilities-hope-drones-ai-will-lower-risk-of-future-wildfires-11599816601?mod=hp_minor_pos6</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/balance-and-speed-drills-from-an-nhl-strength-guru-11600509601?mod=hp_listc_pos1</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6792,26 +5939,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Can an Employer Require You to Get a Covid-19 Vaccine?</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
+          <t>Baseball Star Albert Pujols’ Long-Term Investing Vision</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/can-an-employer-require-you-to-get-a-covid-19-vaccine-11600434001?mod=hp_lead_pos12</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.barrons.com/articles/baseball-star-albert-pujols-long-term-investing-vision-01600455902?mod=hp_minor_pos18</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6829,26 +5970,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Celebrity Chef Tory McPhail Lists New Orleans Home for $1.5 Million</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+          <t>BlackRock ETF Business Wins Big After Fed Taps It for Help</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>https://www.mansionglobal.com/articles/celebrity-chef-tory-mcphail-lists-new-orleans-home-for-1-5-million-219643?mod=hp_minor_pos23</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/fed-hires-blackrock-to-help-calm-markets-its-etf-business-wins-big-11600450267?mod=hp_lead_pos7</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6858,34 +5993,28 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>is, for</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Companies Brace for Higher Taxes After U.S. Election</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
+          <t>Bondi Beach, One of Sydney’s Most Desirable Areas, Is Not Just for Tourists</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/companies-brace-for-higher-taxes-after-u-s-election-11600366918?mod=hp_minor_pos9</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.mansionglobal.com/articles/bondi-beach-one-of-sydneys-most-desirable-areas-is-not-just-for-tourists-219620?mod=hp_minor_pos23</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6893,36 +6022,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Covid Is Making Cash History. How to Profit From the Digital-Payment Future.</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
+          <t>California Utilities Hope Drones, AI Will Lower Risk of Future Wildfires</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>https://www.barrons.com/articles/covid-is-making-cash-history-how-to-profit-from-the-digital-payment-future-51600462858?mod=hp_minor_pos16</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/california-utilities-hope-drones-ai-will-lower-risk-of-future-wildfires-11599816601?mod=hp_minor_pos6</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6940,26 +6059,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Don’t Count Banks Out Just Yet. For One Thing, They’re Cheap.</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
+          <t>Companies Brace for Higher Taxes After U.S. Election</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>https://www.barrons.com/articles/dont-count-bank-stocks-out-just-yet-for-one-thing-theyre-cheap-51600478138?mod=hp_minor_pos18</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/companies-brace-for-higher-taxes-after-u-s-election-11600366918?mod=hp_minor_pos9</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6973,26 +6086,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>East Coast Ports Get More Shipping Volumes as Trade Routes Change</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
+          <t>Companies’ New Back-to-Work Dilemma: Who Returns First?</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/east-coast-ports-get-more-shipping-volumes-as-trade-routes-change-11600289041?mod=hp_minor_pos15</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/companies-new-back-to-work-dilemma-who-comes-first-11600488032?mod=hp_lead_pos5</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7006,26 +6113,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>EasyJet Names New CFO to Aid With Recovery</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>Coronavirus Recasts Startups’ Courtship of Investors</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/easyjet-names-new-cfo-to-aid-with-recovery-11600451277?mod=hp_minor_pos7</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/coronavirus-recasts-startups-courtship-of-investors-11600516804?mod=lead_feature_below_a_pos1</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7033,36 +6134,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Facebook Starts an Ad-Free Section for College Students</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
+          <t>Death Toll From Pandemic Extends Far Beyond Virus Victims</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/facebook-starts-an-ad-free-section-for-college-students-11599770307?mod=hp_minor_pos3</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/death-toll-from-covid-19-pandemic-extends-far-beyond-virus-victims-11600507800?mod=hp_lead_pos2</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7076,26 +6167,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Farm Aid, Election Security Stall Spending Bill</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
+          <t>East Coast Ports Get More Shipping Volumes as Trade Routes Change</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/farm-aid-election-security-stall-spending-bill-11600462212?mod=lead_feature_below_a_pos1</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/east-coast-ports-get-more-shipping-volumes-as-trade-routes-change-11600289041?mod=hp_minor_pos15</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7109,26 +6194,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Forget the Stock Market. The Rare-Plant Market Has Gone Bonkers.</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
+          <t>EasyJet Names New CFO to Aid With Recovery</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/forget-the-stock-market-the-rare-plant-market-has-gone-bonkers-11600437284?mod=hp_featst_pos5</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/easyjet-names-new-cfo-to-aid-with-recovery-11600451277?mod=hp_minor_pos7</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7142,26 +6221,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Gerhard Richter’s Abstraktes Bild to Lead Sotheby’s October Sales in Hong Kong</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
+          <t>Election Winner Could Hinge on How Quickly States Count Mail Ballots</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>https://www.barrons.com/articles/gerhard-richters-abstraktes-bild-to-lead-sothebys-october-sales-in-hong-kong-01600467445?mod=hp_minor_pos25</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/declaring-2020s-winner-could-well-hinge-on-how-quickly-states-count-mail-ballots-11600524000?mod=hp_lead_pos4</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7175,26 +6248,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Gore-Tex Inventor Robert Gore Dies at Age 83</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
+          <t>Emmys 2020: Five Things to Know, From HBO vs. Netflix to Red Carpetless Fashion</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/gore-tex-inventor-robert-gore-dies-at-age-83-11600466811?mod=hp_lista_pos5</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/emmys-2020-five-things-to-know-from-hbo-vs-netflix-to-red-carpet-less-fashion-11600297200?mod=hp_listc_pos4</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7208,26 +6275,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Great Escapes: How ‘Pandemic University’ Founder Omar Mouallem Spends His Free Time</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
+          <t>Envelope Containing Ricin Intercepted in White House Mail</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>https://www.barrons.com/articles/great-escapes-how-pandemic-university-founder-omar-mouallem-spends-his-free-time-01600460678?mod=hp_minor_pos26</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/package-containing-ricin-was-intercepted-in-the-white-house-mail-11600543252?mod=hp_lead_pos3</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7235,32 +6296,30 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hollywood Blockbusters’ New Supervillain: Empty Seats</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
+          <t>Facebook Starts an Ad-Free Section for College Students</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/pandemic-plays-supervillain-to-hollywoods-200-million-movie-machine-11600429562?mod=hp_lead_pos13</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/facebook-starts-an-ad-free-section-for-college-students-11599770307?mod=hp_minor_pos3</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7274,26 +6333,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>How Covid-19 Derailed My Financial Goals</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
+          <t>GOP Sen. Collins Says President Elected Nov. 3 Should Fill Seat</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/how-covid-19-derailed-my-financial-goals-11599922800?mod=hp_jr_pos2</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/gop-sen-collins-says-senate-shouldnt-vote-on-nominee-before-election-11600548081</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7307,26 +6360,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>How to Navigate Covid Travel Restrictions</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
+          <t>Gerhard Richter’s Abstraktes Bild to Lead Sotheby’s October Sales in Hong Kong</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/how-to-navigate-covid-travel-restrictions-11600423522?mod=hp_listc_pos1</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.barrons.com/articles/gerhard-richters-abstraktes-bild-to-lead-sothebys-october-sales-in-hong-kong-01600467445?mod=hp_minor_pos25</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7340,26 +6387,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Islamic State Still Brims With Cash, Ambition</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
+          <t>Great Escapes: How ‘Pandemic University’ Founder Omar Mouallem Spends His Free Time</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/islamic-state-defeated-u-s-foe-still-brims-with-cash-ambition-11600464409?mod=hp_lead_pos2</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.barrons.com/articles/great-escapes-how-pandemic-university-founder-omar-mouallem-spends-his-free-time-01600460678?mod=hp_minor_pos26</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7373,26 +6414,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Jobless Rates in Northeast, West Are Highest in Nation</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
+          <t>How Covid-19 Derailed My Financial Goals</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/jobless-rates-in-northeast-west-are-highest-in-nation-11600447829?mod=hp_listb_pos2</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/how-covid-19-derailed-my-financial-goals-11599922800?mod=hp_jr_pos2</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7406,26 +6441,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Justice Ginsburg, Pioneer on High Court, Dies at 87</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
+          <t>How a Styling Executive Fashioned His Path to the Top</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/ruth-bader-ginsburg-dies-11600472623</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/how-a-styling-executive-fashioned-his-path-to-the-top-11600488034?mod=hp_lista_pos1</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7439,26 +6468,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Justice’s Death Affects Everything in Last Stretch of Campaign</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
+          <t>How to Think Long Term With Near-Zero Rates</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/death-of-justice-ruth-bader-ginsburg-affects-everything-in-last-stretch-of-campaign-11600481798</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/how-to-think-long-term-with-near-zero-interest-rates-11600507800?mod=hp_lista_pos2</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7468,7 +6491,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>is</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -7476,26 +6499,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>L.A. Property Where Artie Shaw, Lana Turner Once Lived Lists for $46.5 Million</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
+          <t>Huang’s Law Is the New Moore’s Law, and Explains Why Nvidia Wants Arm</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/artie-shaw-lana-turner-los-angeles-property-11600448444?mod=hp_listc_pos4</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/huangs-law-is-the-new-moores-law-and-explains-why-nvidia-wants-arm-11600488001?mod=hp_lead_pos10</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7503,36 +6520,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Liberal icon was key figure in fight for women’s legal equality</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr"/>
+          <t>It’s Time to Revive the Interesting Breakfast</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/ruth-bader-ginsburg-dies-11600472623</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/its-time-to-revive-the-interesting-breakfast-11600488060?mod=hp_listc_pos3</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7540,32 +6547,30 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Maersk Prepares Job Cuts as It Extends Reorganization</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
+          <t>It’s time for income-seeking investors to take a fresh look at these 28 utility stocks</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/maersk-prepares-job-cuts-as-it-extends-reorganization-11600443434?mod=hp_minor_pos14</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>http://marketwatch.com/story/its-time-for-income-seeking-investors-to-take-a-fresh-look-at-these-28-utility-stocks-2020-09-17?mod=hp_minor_pos20</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7579,26 +6584,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>McConnell says a Trump pick to replace Ginsburg on Supreme Court would get Senate vote</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
+          <t>Justice’s Death Affects Everything in Campaign</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>http://marketwatch.com/story/mcconnell-says-a-trump-pick-to-replace-ginsburg-on-supreme-court-would-get-senate-vote-2020-09-18?mod=hp_minor_pos19</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/death-of-justice-ruth-bader-ginsburg-affects-everything-in-last-stretch-of-campaign-11600481798</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7612,26 +6611,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>McDonald’s Former CEO Says He Should Keep His Multimillion-Dollar Severance</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
+          <t>Maersk Prepares Job Cuts as It Extends Reorganization</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/mcdonalds-former-ceo-says-he-should-keep-his-multimillion-dollar-severance-11600479337?mod=hp_lista_pos1</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/maersk-prepares-job-cuts-as-it-extends-reorganization-11600443434?mod=hp_minor_pos14</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7645,26 +6638,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Michigan Judge Extends Mail-In Ballot Deadline</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
+          <t>Microsoft and Sony Square Off With Multiple Game Consoles; Amazon Music Joins the Podcast Battle</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/michiganjudge-extends-mail-in-ballot-deadline-11600455126?mod=lead_feature_below_a_pos1</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://cmo.createsend1.com/t/ViewEmail/d/37A9327A773048E12540EF23F30FEDED/4B7310DCAEF300FE62AF25ACF5E3F0AC?mod=hp_minor_pos1</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7678,26 +6665,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Microsoft and Sony Square Off With Multiple Game Consoles; Amazon Music Joins the Podcast Battle</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
+          <t>Millions Are House-Rich but Cash-Poor. Wall Street Landlords Are Ready.</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>https://cmo.createsend1.com/t/ViewEmail/d/37A9327A773048E12540EF23F30FEDED/4B7310DCAEF300FE62AF25ACF5E3F0AC?mod=hp_minor_pos1</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/millions-are-house-rich-but-cash-poor-wall-street-landlords-are-ready-11600421401?mod=lead_feature_below_a_pos1</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7711,26 +6692,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Millions Are House-Rich but Cash-Poor. Wall Street Landlords Are Ready.</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
+          <t>Nasdaq Ramps Up Cloud Move</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/millions-are-house-rich-but-cash-poor-wall-street-landlords-are-ready-11600421401?mod=hp_featst_pos4</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/nasdaq-ramps-up-cloud-move-11600206624?mod=hp_minor_pos5</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7744,26 +6719,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Moderate Republicans in the Senate Under Pressure</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
+          <t>Omnicom Shakes Up Media-Agency Ranks Amid Pandemic</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/ruth-bader-ginsburgs-death-to-spark-titanic-supreme-court-nomination-fight-in-senate-11600478613</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/omnicom-shakes-up-media-agency-ranks-amid-pandemic-11600178401?mod=hp_minor_pos2</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7777,26 +6746,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Nasdaq Ramps Up Cloud Move</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
+          <t>One New York City School Says It’s Possible to Reopen</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/nasdaq-ramps-up-cloud-move-11600206624?mod=hp_minor_pos5</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/one-new-york-city-school-opened-weeks-ago-says-it-can-be-done-11600516800?mod=hp_lead_pos12</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7804,32 +6767,30 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>New York’s Star Attractions Are Reopening. Here’s What You Need to Know.</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
+          <t>PG&amp;E CFO Leaving for Another Utility</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/new-yorks-star-attractions-are-reopening-heres-what-you-need-to-know-11600454394?mod=hp_listc_pos2</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/pg-e-cfo-leaving-for-another-utility-11600388578?mod=hp_minor_pos8</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7837,32 +6798,30 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Omnicom Shakes Up Media-Agency Ranks Amid Pandemic</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+          <t>Pandemic Broadband Speeds Are Faster, but Insufficient for Some</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/omnicom-shakes-up-media-agency-ranks-amid-pandemic-11600178401?mod=hp_minor_pos2</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/pandemic-broadband-speeds-are-faster-but-insufficient-for-some-11600364365?mod=hp_minor_pos4</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7870,36 +6829,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+      <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>PG&amp;E CFO Leaving for Another Utility</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
+          <t>Podcast: Her Life and Legacy</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/pg-e-cfo-leaving-for-another-utility-11600388578?mod=hp_minor_pos8</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/podcasts/whats-news/special-edition-supreme-court-justice-ruth-bader-ginsburg-dies-at-87/AB5C3543-B6CF-4F2A-8928-3F62E3A96927</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7907,36 +6856,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+      <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Pandemic Broadband Speeds Are Faster, but Insufficient for Some</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
+          <t>President says GOP has obligation to move without delay</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/pandemic-broadband-speeds-are-faster-but-insufficient-for-some-11600364365?mod=hp_minor_pos4</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/trump-urges-decision-on-supreme-court-pick-without-delay-11600526646</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7950,26 +6889,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Photos: Remembering Ginsburg</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+          <t>Princeton’s Confession of Bias</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/remembering-justice-ruth-bader-ginsburg-11600472810</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/princetons-confession-of-bias-11600469066?mod=hp_opin_pos_3</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7977,32 +6910,30 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Portland Police Worry About More Unrest</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
+          <t>Rockefeller Family’s Longtime Manhattan Apartment Lists for $11.5 Million</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/portland-police-worry-about-more-unrest-as-stress-grows-and-resources-shrink-11600445352?mod=hp_lead_pos7</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.mansionglobal.com/articles/rockefeller-familys-longtime-manhattan-apartment-lists-for-11-5-million-219636?mod=hp_minor_pos24</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8016,26 +6947,20 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Rain Brings Fire Relief in Oregon, but Raises Mudslide Concern</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
+          <t>Ruth Bader Ginsburg, Equality’s Gracious Champion</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/rain-brings-fire-relief-in-oregon-but-raises-mudslide-concern-11600458496?mod=hp_listb_pos1</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/ruth-bader-ginsburg-equalitys-gracious-champion-11600540064?mod=hp_opin_pos_1</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8049,26 +6974,20 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Rent the Runway Scraps Unlimited Plan, Raises Prices</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
+          <t>SEC Charges Former NS8 Chief With Defrauding Investors</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/rent-the-runway-scraps-unlimited-plan-raises-prices-11600461259?mod=hp_lista_pos4</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/sec-charges-former-ns8-chief-with-defrauding-investors-11600382053?mod=hp_minor_pos11</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8076,36 +6995,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+      <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Rockefeller Family’s Longtime Manhattan Apartment Lists for $11.5 Million</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
+          <t>Saudi Royal Family Split Over Potential Embrace of Israel</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>https://www.mansionglobal.com/articles/rockefeller-familys-longtime-manhattan-apartment-lists-for-11-5-million-219636?mod=hp_minor_pos22</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/saudi-royal-family-split-relations-israel-uae-bahrain-mbs-prince-king-11600446560?mod=hp_listb_pos1</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8119,26 +7028,20 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ruth Bader Ginsburg played a pivotal role in the women’s-rights era — and that was before she joined the Supreme Court </t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
+          <t>Should Parents Give Each Child an Equal Inheritance?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>http://marketwatch.com/story/ruth-bader-ginsburg-played-a-pivotal-role-in-the-womens-right-era-and-that-was-before-she-joined-the-supreme-court-2020-09-18?mod=hp_minor_pos20</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/should-parents-give-each-child-an-equal-inheritance-11599832828?mod=hp_jr_pos3</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8152,26 +7055,20 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>SEC Charges Former NS8 Chief With Defrauding Investors</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
+          <t>Some Investors Tried to Win by Losing Less. They Lost Anyway.</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/sec-charges-former-ns8-chief-with-defrauding-investors-11600382053?mod=hp_minor_pos11</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/some-investors-tried-to-win-by-losing-less-they-lost-anyway-11600441199?mod=lead_feature_below_a_pos1</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8185,26 +7082,20 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Saudi Royal Family Divides Over Potential Embrace of Israel</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
+          <t>Supreme Court Justice Ruth Bader Ginsburg Dies at 87</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/saudi-royal-family-split-relations-israel-uae-bahrain-mbs-prince-king-11600446560?mod=hp_lead_pos5</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/ruth-bader-ginsburg-dies-11600472623</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8218,26 +7109,20 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Should Parents Give Each Child an Equal Inheritance?</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
+          <t>Swedbank Under Investigation By Swedish Regulator in New Probe</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/should-parents-give-each-child-an-equal-inheritance-11599832828?mod=hp_jr_pos3</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/swedbank-under-investigation-by-swedish-regulator-in-new-probe-11600451964?mod=hp_minor_pos10</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8251,26 +7136,20 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Six Charged With Bribing Amazon Workers to Boost Third-Party Sellers</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
+          <t>The Answer to the Electric-Car Conundrum Isn’t Elon Musk</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/six-charged-with-bribing-amazon-employees-to-boost-third-party-sellers-11600460355?mod=hp_lista_pos3</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/the-answer-to-the-electric-car-conundrum-isnt-elon-musk-11600443935?mod=hp_featst_pos3</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8284,26 +7163,20 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Some Investors Tried to Win by Losing Less. They Lost Anyway.</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr"/>
+          <t>The Biggest Money Mistakes People Make in a Recession</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/some-investors-tried-to-win-by-losing-less-they-lost-anyway-11600441199?mod=hp_lista_pos2</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/the-biggest-money-mistakes-people-make-in-a-recession-11600009201?mod=hp_jr_pos1</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8317,26 +7190,20 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Stocks Finish Week Lower, Dragged Down by Tech Shares</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
+          <t>The Coronavirus Stormed the Marlins’ Clubhouse. The Team Returned as a Contender.</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/global-stock-markets-dow-update-9-18-2020-11600421506?mod=hp_lead_pos6</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/the-coronavirus-stormed-the-marlins-clubhouse-the-team-returned-as-a-contender-11600524001?mod=hp_lead_pos13</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8350,26 +7217,20 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Swedbank Under Investigation By Swedish Regulator in New Probe</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
+          <t>The Ginsburg Vacancy</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/swedbank-under-investigation-by-swedish-regulator-in-new-probe-11600451964?mod=hp_minor_pos10</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/the-ginsburg-vacancy-11600484251?mod=hp_opin_pos_2</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8383,26 +7244,20 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>The Answer to the Electric-Car Conundrum Isn’t Elon Musk</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
+          <t>The Listings of the Week: A Duplex Apartment in Milan, a Whimsical Home in Carmel, California, and More</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/the-answer-to-the-electric-car-conundrum-isnt-elon-musk-11600443935?mod=hp_featst_pos3</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.mansionglobal.com/articles/the-listings-of-the-week-a-duplex-apartment-in-milan-a-whimsical-home-in-carmel-california-and-more-219341?mod=hp_minor_pos22</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8416,26 +7271,20 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>The Biggest Money Mistakes People Make in a Recession</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
+          <t>The Morning Risk Report</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/the-biggest-money-mistakes-people-make-in-a-recession-11600009201?mod=hp_jr_pos1</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>http://createsend.com/t/d-01380270FF93D0C92540EF23F30FEDED?mod=hp_minor_pos12</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8449,26 +7298,20 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>The Ginsburg Vacancy</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
+          <t>The Show Goes On: Three New England Theaters Offer Live, In-Person Shows</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/the-ginsburg-vacancy-11600484251?mod=hp_opin_pos_1</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.barrons.com/articles/the-show-goes-on-three-new-england-theaters-offer-live-in-person-shows-01600520644?mod=hp_minor_pos17</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8476,36 +7319,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>The Incredible Shrinking GM: Barra Bets Smaller Is Better</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
+          <t>The Trouble With Opportunity Zone Investments</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/the-incredible-shrinking-gm-mary-barra-finds-success-by-getting-smaller-11600438421?mod=hp_lead_pos10</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.barrons.com/articles/the-trouble-with-opportunity-zone-investments-01600451555?mod=hp_minor_pos27</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8519,26 +7352,20 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>The Morning Risk Report</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
+          <t>The U.S. Open Looked Easy. Then Winged Foot Attacked.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>http://createsend.com/t/d-01380270FF93D0C92540EF23F30FEDED?mod=hp_minor_pos12</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/the-u-s-open-briefly-looked-easy-then-winged-foot-attacked-11600516800?mod=hp_listc_pos2</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8552,26 +7379,20 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>The Russia Farce Continues</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
+          <t>Today’s Logistics Report: Planning Vaccine Delivery; Germany’s Export Cloud; Assembling Ford Trucks</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/the-russia-farce-continues-11600466740?mod=hp_opin_pos_3</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/todays-logistics-report-planning-vaccine-delivery-germanys-export-cloud-assembling-ford-trucks-11600436504?mod=hp_minor_pos13</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8585,26 +7406,20 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>The Trouble With Opportunity Zone Investments</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
+          <t>Trump Says Court Nominee Will Most Likely Be a Woman</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>https://www.barrons.com/articles/the-trouble-with-opportunity-zone-investments-01600451555?mod=hp_minor_pos27</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/trump-urges-decision-on-supreme-court-pick-without-delay-11600526646</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8612,36 +7427,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
+      <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>The Worst Month for U.S. Traffic Deaths</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
+          <t>Trump Signs Off on Deal Allowing TikTok to Continue U.S. Operations</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/the-worst-month-for-u-s-traffic-deaths-11600421400?mod=hp_listb_pos4</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/trump-signs-off-on-deal-allowing-tiktok-to-continue-u-s-operations-11600551352?mod=hp_lead_pos1</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8649,32 +7454,30 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>The ‘Systemic Racism’ Dodge</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr"/>
+          <t>Trump’s Supreme Court List: Potential Candidates for Ginsburg’s Seat</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/the-systemic-racism-dodge-11600454532?mod=hp_opin_pos_2</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/trumps-supreme-court-list-potential-candidates-for-justice-ruth-bader-ginsburgs-seat-11600536830</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8682,32 +7485,30 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Today’s Logistics Report: Planning Vaccine Delivery; Germany’s Export Cloud; Assembling Ford Trucks</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
+          <t>Trump’s Targeted Moves Seek to Shore Up Support for GOP Senators</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/todays-logistics-report-planning-vaccine-delivery-germanys-export-cloud-assembling-ford-trucks-11600436504?mod=hp_minor_pos13</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/trumps-targeted-moves-seek-to-shore-up-support-for-gop-senators-11600520400?mod=hp_listb_pos3</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8721,26 +7522,20 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Treasury Probes Claims of Racial Discrimination at U.S. Mint</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
+          <t>Vacancy Offers Both Parties Fresh Way to Energize Supporters</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/treasury-probes-claims-of-racial-discrimination-at-u-s-mint-11600433826?mod=hp_listb_pos3</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/supreme-court-vacancy-offers-democrats-republicans-fresh-way-to-energize-supporters-11600543107</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8754,26 +7549,20 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Trump Administration Grants $11.6 Billion in Aid to Puerto Rico</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
+          <t>Video: Key Moments of Ginsburg’s Career</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/trump-administration-to-announce-11-6-billion-in-aid-for-puerto-rico-11600440469?mod=lead_feature_below_a_pos1</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/video/justice-ruth-bader-ginsburg-dies-at-87/6FEE03A6-8E42-4098-85CC-A57F9571016B.html</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8787,26 +7576,20 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>White House Bans Chinese Apps, Citing Security Concerns</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr"/>
+          <t>Want to retire rich? Start by unlearning some conventional wisdom</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/commerce-secretary-wilbur-ross-says-he-will-ban-wechat-use-in-u-s-after-sunday-night-11600429988?mod=hp_lead_pos1</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>http://marketwatch.com/story/want-to-retire-rich-start-by-unlearning-some-conventional-wisdom-2020-09-19?mod=hp_minor_pos19</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8814,36 +7597,26 @@
           <t>The Wall Street Journal.</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
+      <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Why One Analyst Thinks That Dell Is Undervalued</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr"/>
+          <t>Weekend reads: Ray Dalio on what business and political leaders must do to keep the U.S. from splintering</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>https://www.barrons.com/articles/why-one-analyst-thinks-that-dell-is-undervalued-51600479132?mod=hp_minor_pos17</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>http://marketwatch.com/story/weekend-reads-ray-dalio-on-what-business-and-political-leaders-must-do-to-keep-the-us-from-splintering-2020-09-18?mod=hp_minor_pos21</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8857,26 +7630,20 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>‘Reggae’: How ‘Rags’ Came  to Yield Musical Riches</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
+          <t>What They’re Reading: Picks From Business, Artists, and Entrepreneurs</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/reggae-how-rags-came-to-yield-musical-riches-11600435848?mod=hp_listc_pos3</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.barrons.com/articles/what-theyre-reading-picks-from-business-artists-and-entrepreneurs-01600456197?mod=hp_minor_pos16</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8890,26 +7657,47 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>‘Trump Cards’? Drug companies reportedly balked at White House insistence on sending cash cards to America’s seniors</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
+          <t>What the Old Establishment Can Teach the New Tech Elite</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>http://marketwatch.com/story/trump-cards-drug-companies-reportedly-balked-at-white-house-insistence-on-sending-cash-cards-to-americas-seniors-2020-09-18?mod=hp_minor_pos21</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>09/19/2020</t>
-        </is>
-      </c>
+          <t>https://www.wsj.com/articles/what-the-old-establishment-can-teach-the-new-tech-elite-11600440864?mod=hp_featst_pos5</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>The Wall Street Journal.</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Where Trump and Biden Stand on Foreign Policy</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>09/20/2020</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>https://www.wsj.com/articles/where-trump-and-biden-stand-on-foreign-policy-11600507801?mod=hp_listb_pos2</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
